--- a/data/consolidado.xlsx
+++ b/data/consolidado.xlsx
@@ -7341,9 +7341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>

--- a/data/consolidado.xlsx
+++ b/data/consolidado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lionel\Desktop\buscador\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4287535F-F5F6-4DDC-B147-B3DD900E6435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABA8063-6775-499A-B12E-33A12F6E52D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="135" windowWidth="28230" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="1560" windowWidth="28230" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prestaciones" sheetId="17" r:id="rId1"/>
@@ -7192,9 +7192,6 @@
     <t>Obligación de cobertura en los siguientes casos: Diagnóstico de queratocono (mancha roja inferior)</t>
   </si>
   <si>
-    <t>Pediatria</t>
-  </si>
-  <si>
     <t>Observaciones: no existe evidencia científica que avale la solicitud de esta práctica
 como rastreo sistemático en la búsqueda de cáncer de pulmón, por tanto no constituye una indicación para el examen periódico de salud en esta condición.</t>
   </si>
@@ -7403,12 +7400,15 @@
   <si>
     <t>Operasciones en el Sistema Genital Femenino y Obstetricia</t>
   </si>
+  <si>
+    <t>Pediatría</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7439,6 +7439,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7480,19 +7486,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7707,9 +7716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FA85EE-49AC-4B4B-BCA2-8229F4F76A01}">
   <dimension ref="A1:G1046539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1950" workbookViewId="0">
-      <selection activeCell="I2013" sqref="I2013"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11935,7 +11942,7 @@
         <v>1676</v>
       </c>
       <c r="F211" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -14535,7 +14542,7 @@
         <v>1676</v>
       </c>
       <c r="F341" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -15135,7 +15142,7 @@
         <v>1676</v>
       </c>
       <c r="F371" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
@@ -15515,7 +15522,7 @@
         <v>1676</v>
       </c>
       <c r="F390" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
@@ -15735,7 +15742,7 @@
         <v>1676</v>
       </c>
       <c r="F401" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
@@ -15815,7 +15822,7 @@
         <v>1676</v>
       </c>
       <c r="F405" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
@@ -15835,7 +15842,7 @@
         <v>1676</v>
       </c>
       <c r="F406" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
@@ -15855,7 +15862,7 @@
         <v>1676</v>
       </c>
       <c r="F407" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
@@ -15875,7 +15882,7 @@
         <v>1676</v>
       </c>
       <c r="F408" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
@@ -15895,7 +15902,7 @@
         <v>1676</v>
       </c>
       <c r="F409" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
@@ -15975,7 +15982,7 @@
         <v>1676</v>
       </c>
       <c r="F413" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
@@ -15995,7 +16002,7 @@
         <v>1676</v>
       </c>
       <c r="F414" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
@@ -16075,7 +16082,7 @@
         <v>1676</v>
       </c>
       <c r="F418" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
@@ -17015,7 +17022,7 @@
         <v>1676</v>
       </c>
       <c r="F465" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
@@ -19146,12 +19153,12 @@
         <v>1679</v>
       </c>
       <c r="C572" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D572" t="s">
         <v>2075</v>
       </c>
-      <c r="E572">
+      <c r="E572" s="4">
         <v>0.4</v>
       </c>
       <c r="F572" t="s">
@@ -19171,7 +19178,7 @@
       <c r="D573" t="s">
         <v>2075</v>
       </c>
-      <c r="E573">
+      <c r="E573" s="4">
         <v>0.4</v>
       </c>
       <c r="F573" t="s">
@@ -19191,7 +19198,7 @@
       <c r="D574" t="s">
         <v>2075</v>
       </c>
-      <c r="E574">
+      <c r="E574" s="4">
         <v>0.4</v>
       </c>
       <c r="F574" t="s">
@@ -19211,7 +19218,7 @@
       <c r="D575" t="s">
         <v>2075</v>
       </c>
-      <c r="E575">
+      <c r="E575" s="4">
         <v>0.4</v>
       </c>
       <c r="F575" t="s">
@@ -19231,7 +19238,7 @@
       <c r="D576" t="s">
         <v>2075</v>
       </c>
-      <c r="E576">
+      <c r="E576" s="4">
         <v>0.4</v>
       </c>
       <c r="F576" t="s">
@@ -19251,7 +19258,7 @@
       <c r="D577" t="s">
         <v>2075</v>
       </c>
-      <c r="E577">
+      <c r="E577" s="4">
         <v>0.4</v>
       </c>
       <c r="F577" t="s">
@@ -19271,7 +19278,7 @@
       <c r="D578" t="s">
         <v>2075</v>
       </c>
-      <c r="E578">
+      <c r="E578" s="4">
         <v>0.4</v>
       </c>
       <c r="F578" t="s">
@@ -19291,7 +19298,7 @@
       <c r="D579" t="s">
         <v>2075</v>
       </c>
-      <c r="E579">
+      <c r="E579" s="4">
         <v>0.4</v>
       </c>
       <c r="F579" t="s">
@@ -19311,7 +19318,7 @@
       <c r="D580" t="s">
         <v>2075</v>
       </c>
-      <c r="E580">
+      <c r="E580" s="4">
         <v>0.4</v>
       </c>
       <c r="F580" t="s">
@@ -19331,7 +19338,7 @@
       <c r="D581" t="s">
         <v>2075</v>
       </c>
-      <c r="E581">
+      <c r="E581" s="4">
         <v>0.4</v>
       </c>
       <c r="F581" t="s">
@@ -19351,7 +19358,7 @@
       <c r="D582" t="s">
         <v>2075</v>
       </c>
-      <c r="E582">
+      <c r="E582" s="4">
         <v>0.4</v>
       </c>
       <c r="F582" t="s">
@@ -19371,7 +19378,7 @@
       <c r="D583" t="s">
         <v>2075</v>
       </c>
-      <c r="E583">
+      <c r="E583" s="4">
         <v>0.4</v>
       </c>
       <c r="F583" t="s">
@@ -19391,7 +19398,7 @@
       <c r="D584" t="s">
         <v>2075</v>
       </c>
-      <c r="E584">
+      <c r="E584" s="4">
         <v>0.4</v>
       </c>
       <c r="F584" t="s">
@@ -19411,7 +19418,7 @@
       <c r="D585" t="s">
         <v>2075</v>
       </c>
-      <c r="E585">
+      <c r="E585" s="4">
         <v>0.4</v>
       </c>
       <c r="F585" t="s">
@@ -19431,7 +19438,7 @@
       <c r="D586" t="s">
         <v>2075</v>
       </c>
-      <c r="E586">
+      <c r="E586" s="4">
         <v>0.4</v>
       </c>
       <c r="F586" t="s">
@@ -19451,7 +19458,7 @@
       <c r="D587" t="s">
         <v>2075</v>
       </c>
-      <c r="E587">
+      <c r="E587" s="4">
         <v>0.4</v>
       </c>
       <c r="F587" t="s">
@@ -19471,7 +19478,7 @@
       <c r="D588" t="s">
         <v>2075</v>
       </c>
-      <c r="E588">
+      <c r="E588" s="4">
         <v>0.4</v>
       </c>
       <c r="F588" t="s">
@@ -19491,7 +19498,7 @@
       <c r="D589" t="s">
         <v>2075</v>
       </c>
-      <c r="E589">
+      <c r="E589" s="4">
         <v>0.4</v>
       </c>
       <c r="F589" t="s">
@@ -19511,7 +19518,7 @@
       <c r="D590" t="s">
         <v>2075</v>
       </c>
-      <c r="E590">
+      <c r="E590" s="4">
         <v>0.4</v>
       </c>
       <c r="F590" t="s">
@@ -19531,7 +19538,7 @@
       <c r="D591" t="s">
         <v>2075</v>
       </c>
-      <c r="E591">
+      <c r="E591" s="4">
         <v>0.4</v>
       </c>
       <c r="F591" t="s">
@@ -19551,7 +19558,7 @@
       <c r="D592" t="s">
         <v>2075</v>
       </c>
-      <c r="E592">
+      <c r="E592" s="4">
         <v>0.4</v>
       </c>
       <c r="F592" t="s">
@@ -19571,7 +19578,7 @@
       <c r="D593" t="s">
         <v>2075</v>
       </c>
-      <c r="E593">
+      <c r="E593" s="4">
         <v>0.4</v>
       </c>
       <c r="F593" t="s">
@@ -19591,7 +19598,7 @@
       <c r="D594" t="s">
         <v>2075</v>
       </c>
-      <c r="E594">
+      <c r="E594" s="4">
         <v>0.4</v>
       </c>
       <c r="F594" t="s">
@@ -19611,7 +19618,7 @@
       <c r="D595" t="s">
         <v>2075</v>
       </c>
-      <c r="E595">
+      <c r="E595" s="4">
         <v>0.4</v>
       </c>
       <c r="F595" t="s">
@@ -19631,7 +19638,7 @@
       <c r="D596" t="s">
         <v>2075</v>
       </c>
-      <c r="E596">
+      <c r="E596" s="4">
         <v>0.4</v>
       </c>
       <c r="F596" t="s">
@@ -19651,7 +19658,7 @@
       <c r="D597" t="s">
         <v>2075</v>
       </c>
-      <c r="E597">
+      <c r="E597" s="4">
         <v>0.4</v>
       </c>
       <c r="F597" t="s">
@@ -19671,7 +19678,7 @@
       <c r="D598" t="s">
         <v>2075</v>
       </c>
-      <c r="E598">
+      <c r="E598" s="4">
         <v>0.4</v>
       </c>
       <c r="F598" t="s">
@@ -19691,7 +19698,7 @@
       <c r="D599" t="s">
         <v>2075</v>
       </c>
-      <c r="E599">
+      <c r="E599" s="4">
         <v>0.4</v>
       </c>
       <c r="F599" t="s">
@@ -19711,7 +19718,7 @@
       <c r="D600" t="s">
         <v>2075</v>
       </c>
-      <c r="E600">
+      <c r="E600" s="4">
         <v>0.4</v>
       </c>
       <c r="F600" t="s">
@@ -19731,7 +19738,7 @@
       <c r="D601" t="s">
         <v>2075</v>
       </c>
-      <c r="E601">
+      <c r="E601" s="4">
         <v>0.4</v>
       </c>
       <c r="F601" t="s">
@@ -19751,7 +19758,7 @@
       <c r="D602" t="s">
         <v>2075</v>
       </c>
-      <c r="E602">
+      <c r="E602" s="4">
         <v>0.4</v>
       </c>
       <c r="F602" t="s">
@@ -19771,7 +19778,7 @@
       <c r="D603" t="s">
         <v>2075</v>
       </c>
-      <c r="E603">
+      <c r="E603" s="4">
         <v>0.4</v>
       </c>
       <c r="F603" t="s">
@@ -19791,7 +19798,7 @@
       <c r="D604" t="s">
         <v>2075</v>
       </c>
-      <c r="E604">
+      <c r="E604" s="4">
         <v>0.4</v>
       </c>
       <c r="F604" t="s">
@@ -19811,7 +19818,7 @@
       <c r="D605" t="s">
         <v>2075</v>
       </c>
-      <c r="E605">
+      <c r="E605" s="4">
         <v>0.4</v>
       </c>
       <c r="F605" t="s">
@@ -19831,7 +19838,7 @@
       <c r="D606" t="s">
         <v>2075</v>
       </c>
-      <c r="E606">
+      <c r="E606" s="4">
         <v>0.4</v>
       </c>
       <c r="F606" t="s">
@@ -19851,7 +19858,7 @@
       <c r="D607" t="s">
         <v>2075</v>
       </c>
-      <c r="E607">
+      <c r="E607" s="4">
         <v>0.4</v>
       </c>
       <c r="F607" t="s">
@@ -19871,7 +19878,7 @@
       <c r="D608" t="s">
         <v>2075</v>
       </c>
-      <c r="E608">
+      <c r="E608" s="4">
         <v>0.4</v>
       </c>
       <c r="F608" t="s">
@@ -19891,7 +19898,7 @@
       <c r="D609" t="s">
         <v>2075</v>
       </c>
-      <c r="E609">
+      <c r="E609" s="4">
         <v>0.4</v>
       </c>
       <c r="F609" t="s">
@@ -19911,7 +19918,7 @@
       <c r="D610" t="s">
         <v>2075</v>
       </c>
-      <c r="E610">
+      <c r="E610" s="4">
         <v>0.4</v>
       </c>
       <c r="F610" t="s">
@@ -19931,7 +19938,7 @@
       <c r="D611" t="s">
         <v>2075</v>
       </c>
-      <c r="E611">
+      <c r="E611" s="4">
         <v>0.4</v>
       </c>
       <c r="F611" t="s">
@@ -19951,7 +19958,7 @@
       <c r="D612" t="s">
         <v>2075</v>
       </c>
-      <c r="E612">
+      <c r="E612" s="4">
         <v>0.4</v>
       </c>
       <c r="F612" t="s">
@@ -19971,7 +19978,7 @@
       <c r="D613" t="s">
         <v>2075</v>
       </c>
-      <c r="E613">
+      <c r="E613" s="4">
         <v>0.4</v>
       </c>
       <c r="F613" t="s">
@@ -19991,7 +19998,7 @@
       <c r="D614" t="s">
         <v>2075</v>
       </c>
-      <c r="E614">
+      <c r="E614" s="4">
         <v>0.4</v>
       </c>
       <c r="F614" t="s">
@@ -20011,7 +20018,7 @@
       <c r="D615" t="s">
         <v>2075</v>
       </c>
-      <c r="E615">
+      <c r="E615" s="4">
         <v>0.4</v>
       </c>
       <c r="F615" t="s">
@@ -20031,7 +20038,7 @@
       <c r="D616" t="s">
         <v>2075</v>
       </c>
-      <c r="E616">
+      <c r="E616" s="4">
         <v>0.4</v>
       </c>
       <c r="F616" t="s">
@@ -20051,7 +20058,7 @@
       <c r="D617" t="s">
         <v>2075</v>
       </c>
-      <c r="E617">
+      <c r="E617" s="4">
         <v>0.4</v>
       </c>
       <c r="F617" t="s">
@@ -20071,7 +20078,7 @@
       <c r="D618" t="s">
         <v>2075</v>
       </c>
-      <c r="E618">
+      <c r="E618" s="4">
         <v>0.4</v>
       </c>
       <c r="F618" t="s">
@@ -20091,7 +20098,7 @@
       <c r="D619" t="s">
         <v>2075</v>
       </c>
-      <c r="E619">
+      <c r="E619" s="4">
         <v>0.4</v>
       </c>
       <c r="F619" t="s">
@@ -20111,7 +20118,7 @@
       <c r="D620" t="s">
         <v>2075</v>
       </c>
-      <c r="E620">
+      <c r="E620" s="4">
         <v>0.4</v>
       </c>
       <c r="F620" t="s">
@@ -20131,7 +20138,7 @@
       <c r="D621" t="s">
         <v>2075</v>
       </c>
-      <c r="E621">
+      <c r="E621" s="4">
         <v>0.4</v>
       </c>
       <c r="F621" t="s">
@@ -20151,7 +20158,7 @@
       <c r="D622" t="s">
         <v>2075</v>
       </c>
-      <c r="E622">
+      <c r="E622" s="4">
         <v>0.4</v>
       </c>
       <c r="F622" t="s">
@@ -20171,7 +20178,7 @@
       <c r="D623" t="s">
         <v>2075</v>
       </c>
-      <c r="E623">
+      <c r="E623" s="4">
         <v>0.4</v>
       </c>
       <c r="F623" t="s">
@@ -20191,7 +20198,7 @@
       <c r="D624" t="s">
         <v>2075</v>
       </c>
-      <c r="E624">
+      <c r="E624" s="4">
         <v>0.4</v>
       </c>
       <c r="F624" t="s">
@@ -20211,7 +20218,7 @@
       <c r="D625" t="s">
         <v>2075</v>
       </c>
-      <c r="E625">
+      <c r="E625" s="4">
         <v>0.4</v>
       </c>
       <c r="F625" t="s">
@@ -20231,7 +20238,7 @@
       <c r="D626" t="s">
         <v>2075</v>
       </c>
-      <c r="E626">
+      <c r="E626" s="4">
         <v>0.4</v>
       </c>
       <c r="F626" t="s">
@@ -20251,7 +20258,7 @@
       <c r="D627" t="s">
         <v>2075</v>
       </c>
-      <c r="E627">
+      <c r="E627" s="4">
         <v>0.4</v>
       </c>
       <c r="F627" t="s">
@@ -20271,7 +20278,7 @@
       <c r="D628" t="s">
         <v>2075</v>
       </c>
-      <c r="E628">
+      <c r="E628" s="4">
         <v>0.4</v>
       </c>
       <c r="F628" t="s">
@@ -20291,7 +20298,7 @@
       <c r="D629" t="s">
         <v>2075</v>
       </c>
-      <c r="E629">
+      <c r="E629" s="4">
         <v>0.4</v>
       </c>
       <c r="F629" t="s">
@@ -20311,7 +20318,7 @@
       <c r="D630" t="s">
         <v>2075</v>
       </c>
-      <c r="E630">
+      <c r="E630" s="4">
         <v>0.4</v>
       </c>
       <c r="F630" t="s">
@@ -20331,7 +20338,7 @@
       <c r="D631" t="s">
         <v>2075</v>
       </c>
-      <c r="E631">
+      <c r="E631" s="4">
         <v>0.4</v>
       </c>
       <c r="F631" t="s">
@@ -20351,7 +20358,7 @@
       <c r="D632" t="s">
         <v>2075</v>
       </c>
-      <c r="E632">
+      <c r="E632" s="4">
         <v>0.4</v>
       </c>
       <c r="F632" t="s">
@@ -20371,7 +20378,7 @@
       <c r="D633" t="s">
         <v>2075</v>
       </c>
-      <c r="E633">
+      <c r="E633" s="4">
         <v>0.4</v>
       </c>
       <c r="F633" t="s">
@@ -20391,7 +20398,7 @@
       <c r="D634" t="s">
         <v>2075</v>
       </c>
-      <c r="E634">
+      <c r="E634" s="4">
         <v>0.4</v>
       </c>
       <c r="F634" t="s">
@@ -20411,7 +20418,7 @@
       <c r="D635" t="s">
         <v>2075</v>
       </c>
-      <c r="E635">
+      <c r="E635" s="4">
         <v>0.4</v>
       </c>
       <c r="F635" t="s">
@@ -20431,7 +20438,7 @@
       <c r="D636" t="s">
         <v>2075</v>
       </c>
-      <c r="E636">
+      <c r="E636" s="4">
         <v>0.4</v>
       </c>
       <c r="F636" t="s">
@@ -20451,7 +20458,7 @@
       <c r="D637" t="s">
         <v>2075</v>
       </c>
-      <c r="E637">
+      <c r="E637" s="4">
         <v>0.4</v>
       </c>
       <c r="F637" t="s">
@@ -20471,7 +20478,7 @@
       <c r="D638" t="s">
         <v>2075</v>
       </c>
-      <c r="E638">
+      <c r="E638" s="4">
         <v>0.4</v>
       </c>
       <c r="F638" t="s">
@@ -20491,7 +20498,7 @@
       <c r="D639" t="s">
         <v>2075</v>
       </c>
-      <c r="E639">
+      <c r="E639" s="4">
         <v>0.4</v>
       </c>
       <c r="F639" t="s">
@@ -20511,7 +20518,7 @@
       <c r="D640" t="s">
         <v>2075</v>
       </c>
-      <c r="E640">
+      <c r="E640" s="4">
         <v>0.4</v>
       </c>
       <c r="F640" t="s">
@@ -20531,7 +20538,7 @@
       <c r="D641" t="s">
         <v>2075</v>
       </c>
-      <c r="E641">
+      <c r="E641" s="4">
         <v>0.4</v>
       </c>
       <c r="F641" t="s">
@@ -20551,7 +20558,7 @@
       <c r="D642" t="s">
         <v>2075</v>
       </c>
-      <c r="E642">
+      <c r="E642" s="4">
         <v>0.4</v>
       </c>
       <c r="F642" t="s">
@@ -20571,7 +20578,7 @@
       <c r="D643" t="s">
         <v>2075</v>
       </c>
-      <c r="E643">
+      <c r="E643" s="4">
         <v>0.4</v>
       </c>
       <c r="F643" t="s">
@@ -20591,7 +20598,7 @@
       <c r="D644" t="s">
         <v>2075</v>
       </c>
-      <c r="E644">
+      <c r="E644" s="4">
         <v>0.4</v>
       </c>
       <c r="F644" t="s">
@@ -20611,7 +20618,7 @@
       <c r="D645" t="s">
         <v>2075</v>
       </c>
-      <c r="E645">
+      <c r="E645" s="4">
         <v>0.4</v>
       </c>
       <c r="F645" t="s">
@@ -20631,7 +20638,7 @@
       <c r="D646" t="s">
         <v>2075</v>
       </c>
-      <c r="E646">
+      <c r="E646" s="4">
         <v>0.4</v>
       </c>
       <c r="F646" t="s">
@@ -20651,7 +20658,7 @@
       <c r="D647" t="s">
         <v>2075</v>
       </c>
-      <c r="E647">
+      <c r="E647" s="4">
         <v>0.4</v>
       </c>
       <c r="F647" t="s">
@@ -20671,7 +20678,7 @@
       <c r="D648" t="s">
         <v>2075</v>
       </c>
-      <c r="E648">
+      <c r="E648" s="4">
         <v>0.4</v>
       </c>
       <c r="F648" t="s">
@@ -20691,7 +20698,7 @@
       <c r="D649" t="s">
         <v>2075</v>
       </c>
-      <c r="E649">
+      <c r="E649" s="4">
         <v>0.4</v>
       </c>
       <c r="F649" t="s">
@@ -20711,7 +20718,7 @@
       <c r="D650" t="s">
         <v>2075</v>
       </c>
-      <c r="E650">
+      <c r="E650" s="4">
         <v>0.4</v>
       </c>
       <c r="F650" t="s">
@@ -20731,7 +20738,7 @@
       <c r="D651" t="s">
         <v>2075</v>
       </c>
-      <c r="E651">
+      <c r="E651" s="4">
         <v>0.4</v>
       </c>
       <c r="F651" t="s">
@@ -20751,7 +20758,7 @@
       <c r="D652" t="s">
         <v>2075</v>
       </c>
-      <c r="E652">
+      <c r="E652" s="4">
         <v>0.4</v>
       </c>
       <c r="F652" t="s">
@@ -20771,7 +20778,7 @@
       <c r="D653" t="s">
         <v>2075</v>
       </c>
-      <c r="E653">
+      <c r="E653" s="4">
         <v>0.4</v>
       </c>
       <c r="F653" t="s">
@@ -20791,7 +20798,7 @@
       <c r="D654" t="s">
         <v>2075</v>
       </c>
-      <c r="E654">
+      <c r="E654" s="4">
         <v>0.4</v>
       </c>
       <c r="F654" t="s">
@@ -20811,7 +20818,7 @@
       <c r="D655" t="s">
         <v>2075</v>
       </c>
-      <c r="E655">
+      <c r="E655" s="4">
         <v>0.4</v>
       </c>
       <c r="F655" t="s">
@@ -20831,7 +20838,7 @@
       <c r="D656" t="s">
         <v>2075</v>
       </c>
-      <c r="E656">
+      <c r="E656" s="4">
         <v>0.4</v>
       </c>
       <c r="F656" t="s">
@@ -20851,7 +20858,7 @@
       <c r="D657" t="s">
         <v>2075</v>
       </c>
-      <c r="E657">
+      <c r="E657" s="4">
         <v>0.4</v>
       </c>
       <c r="F657" t="s">
@@ -20871,7 +20878,7 @@
       <c r="D658" t="s">
         <v>2075</v>
       </c>
-      <c r="E658">
+      <c r="E658" s="4">
         <v>0.4</v>
       </c>
       <c r="F658" t="s">
@@ -20891,7 +20898,7 @@
       <c r="D659" t="s">
         <v>2075</v>
       </c>
-      <c r="E659">
+      <c r="E659" s="4">
         <v>0.4</v>
       </c>
       <c r="F659" t="s">
@@ -20911,7 +20918,7 @@
       <c r="D660" t="s">
         <v>2075</v>
       </c>
-      <c r="E660">
+      <c r="E660" s="4">
         <v>0.4</v>
       </c>
       <c r="F660" t="s">
@@ -20931,7 +20938,7 @@
       <c r="D661" t="s">
         <v>2075</v>
       </c>
-      <c r="E661">
+      <c r="E661" s="4">
         <v>0.4</v>
       </c>
       <c r="F661" t="s">
@@ -20951,7 +20958,7 @@
       <c r="D662" t="s">
         <v>2075</v>
       </c>
-      <c r="E662">
+      <c r="E662" s="4">
         <v>0.4</v>
       </c>
       <c r="F662" t="s">
@@ -20971,7 +20978,7 @@
       <c r="D663" t="s">
         <v>2075</v>
       </c>
-      <c r="E663">
+      <c r="E663" s="4">
         <v>0.4</v>
       </c>
       <c r="F663" t="s">
@@ -20991,7 +20998,7 @@
       <c r="D664" t="s">
         <v>2075</v>
       </c>
-      <c r="E664">
+      <c r="E664" s="4">
         <v>0.4</v>
       </c>
       <c r="F664" t="s">
@@ -21011,7 +21018,7 @@
       <c r="D665" t="s">
         <v>2075</v>
       </c>
-      <c r="E665">
+      <c r="E665" s="4">
         <v>0.4</v>
       </c>
       <c r="F665" t="s">
@@ -21031,7 +21038,7 @@
       <c r="D666" t="s">
         <v>2075</v>
       </c>
-      <c r="E666">
+      <c r="E666" s="4">
         <v>0.4</v>
       </c>
       <c r="F666" t="s">
@@ -21051,7 +21058,7 @@
       <c r="D667" t="s">
         <v>2075</v>
       </c>
-      <c r="E667">
+      <c r="E667" s="4">
         <v>0.4</v>
       </c>
       <c r="F667" t="s">
@@ -21071,7 +21078,7 @@
       <c r="D668" t="s">
         <v>2075</v>
       </c>
-      <c r="E668">
+      <c r="E668" s="4">
         <v>0.4</v>
       </c>
       <c r="F668" t="s">
@@ -21091,7 +21098,7 @@
       <c r="D669" t="s">
         <v>2075</v>
       </c>
-      <c r="E669">
+      <c r="E669" s="4">
         <v>0.4</v>
       </c>
       <c r="F669" t="s">
@@ -21111,7 +21118,7 @@
       <c r="D670" t="s">
         <v>2075</v>
       </c>
-      <c r="E670">
+      <c r="E670" s="4">
         <v>0.4</v>
       </c>
       <c r="F670" t="s">
@@ -21131,7 +21138,7 @@
       <c r="D671" t="s">
         <v>2075</v>
       </c>
-      <c r="E671">
+      <c r="E671" s="4">
         <v>0.4</v>
       </c>
       <c r="F671" t="s">
@@ -21151,7 +21158,7 @@
       <c r="D672" t="s">
         <v>2075</v>
       </c>
-      <c r="E672">
+      <c r="E672" s="4">
         <v>0.4</v>
       </c>
       <c r="F672" t="s">
@@ -21171,7 +21178,7 @@
       <c r="D673" t="s">
         <v>2075</v>
       </c>
-      <c r="E673">
+      <c r="E673" s="4">
         <v>0.4</v>
       </c>
       <c r="F673" t="s">
@@ -21191,7 +21198,7 @@
       <c r="D674" t="s">
         <v>2075</v>
       </c>
-      <c r="E674">
+      <c r="E674" s="4">
         <v>0.4</v>
       </c>
       <c r="F674" t="s">
@@ -21211,7 +21218,7 @@
       <c r="D675" t="s">
         <v>2075</v>
       </c>
-      <c r="E675">
+      <c r="E675" s="4">
         <v>0.4</v>
       </c>
       <c r="F675" t="s">
@@ -21231,7 +21238,7 @@
       <c r="D676" t="s">
         <v>2075</v>
       </c>
-      <c r="E676">
+      <c r="E676" s="4">
         <v>0.4</v>
       </c>
       <c r="F676" t="s">
@@ -21251,7 +21258,7 @@
       <c r="D677" t="s">
         <v>2075</v>
       </c>
-      <c r="E677">
+      <c r="E677" s="4">
         <v>0.4</v>
       </c>
       <c r="F677" t="s">
@@ -21271,7 +21278,7 @@
       <c r="D678" t="s">
         <v>2075</v>
       </c>
-      <c r="E678">
+      <c r="E678" s="4">
         <v>0.4</v>
       </c>
       <c r="F678" t="s">
@@ -21291,7 +21298,7 @@
       <c r="D679" t="s">
         <v>2075</v>
       </c>
-      <c r="E679">
+      <c r="E679" s="4">
         <v>0.4</v>
       </c>
       <c r="F679" t="s">
@@ -21311,7 +21318,7 @@
       <c r="D680" t="s">
         <v>2075</v>
       </c>
-      <c r="E680">
+      <c r="E680" s="4">
         <v>0.4</v>
       </c>
       <c r="F680" t="s">
@@ -21331,7 +21338,7 @@
       <c r="D681" t="s">
         <v>2075</v>
       </c>
-      <c r="E681">
+      <c r="E681" s="4">
         <v>0.4</v>
       </c>
       <c r="F681" t="s">
@@ -21351,7 +21358,7 @@
       <c r="D682" t="s">
         <v>2075</v>
       </c>
-      <c r="E682">
+      <c r="E682" s="4">
         <v>0.4</v>
       </c>
       <c r="F682" t="s">
@@ -21371,7 +21378,7 @@
       <c r="D683" t="s">
         <v>2075</v>
       </c>
-      <c r="E683">
+      <c r="E683" s="4">
         <v>0.4</v>
       </c>
       <c r="F683" t="s">
@@ -21391,7 +21398,7 @@
       <c r="D684" t="s">
         <v>2075</v>
       </c>
-      <c r="E684">
+      <c r="E684" s="4">
         <v>0.4</v>
       </c>
       <c r="F684" t="s">
@@ -21411,7 +21418,7 @@
       <c r="D685" t="s">
         <v>2075</v>
       </c>
-      <c r="E685">
+      <c r="E685" s="4">
         <v>0.4</v>
       </c>
       <c r="F685" t="s">
@@ -21431,7 +21438,7 @@
       <c r="D686" t="s">
         <v>2075</v>
       </c>
-      <c r="E686">
+      <c r="E686" s="4">
         <v>0.4</v>
       </c>
       <c r="F686" t="s">
@@ -21451,7 +21458,7 @@
       <c r="D687" t="s">
         <v>2075</v>
       </c>
-      <c r="E687">
+      <c r="E687" s="4">
         <v>0.4</v>
       </c>
       <c r="F687" t="s">
@@ -21471,7 +21478,7 @@
       <c r="D688" t="s">
         <v>2075</v>
       </c>
-      <c r="E688">
+      <c r="E688" s="4">
         <v>0.4</v>
       </c>
       <c r="F688" t="s">
@@ -21491,7 +21498,7 @@
       <c r="D689" t="s">
         <v>2075</v>
       </c>
-      <c r="E689">
+      <c r="E689" s="4">
         <v>0.4</v>
       </c>
       <c r="F689" t="s">
@@ -21511,7 +21518,7 @@
       <c r="D690" t="s">
         <v>2075</v>
       </c>
-      <c r="E690">
+      <c r="E690" s="4">
         <v>0.4</v>
       </c>
       <c r="F690" t="s">
@@ -21531,7 +21538,7 @@
       <c r="D691" t="s">
         <v>2075</v>
       </c>
-      <c r="E691">
+      <c r="E691" s="4">
         <v>0.4</v>
       </c>
       <c r="F691" t="s">
@@ -21551,7 +21558,7 @@
       <c r="D692" t="s">
         <v>2075</v>
       </c>
-      <c r="E692">
+      <c r="E692" s="4">
         <v>0.4</v>
       </c>
       <c r="F692" t="s">
@@ -21571,7 +21578,7 @@
       <c r="D693" t="s">
         <v>2075</v>
       </c>
-      <c r="E693">
+      <c r="E693" s="4">
         <v>0.4</v>
       </c>
       <c r="F693" t="s">
@@ -21591,7 +21598,7 @@
       <c r="D694" t="s">
         <v>2075</v>
       </c>
-      <c r="E694">
+      <c r="E694" s="4">
         <v>0.4</v>
       </c>
       <c r="F694" t="s">
@@ -21611,7 +21618,7 @@
       <c r="D695" t="s">
         <v>2075</v>
       </c>
-      <c r="E695">
+      <c r="E695" s="4">
         <v>0.4</v>
       </c>
       <c r="F695" t="s">
@@ -21631,7 +21638,7 @@
       <c r="D696" t="s">
         <v>2075</v>
       </c>
-      <c r="E696">
+      <c r="E696" s="4">
         <v>0.4</v>
       </c>
       <c r="F696" t="s">
@@ -21651,7 +21658,7 @@
       <c r="D697" t="s">
         <v>2075</v>
       </c>
-      <c r="E697">
+      <c r="E697" s="4">
         <v>0.7</v>
       </c>
       <c r="F697" t="s">
@@ -21671,7 +21678,7 @@
       <c r="D698" t="s">
         <v>2075</v>
       </c>
-      <c r="E698">
+      <c r="E698" s="4">
         <v>0.7</v>
       </c>
       <c r="F698" t="s">
@@ -21691,7 +21698,7 @@
       <c r="D699" t="s">
         <v>2075</v>
       </c>
-      <c r="E699">
+      <c r="E699" s="4">
         <v>0.7</v>
       </c>
       <c r="F699" t="s">
@@ -21711,7 +21718,7 @@
       <c r="D700" t="s">
         <v>2075</v>
       </c>
-      <c r="E700">
+      <c r="E700" s="4">
         <v>0.7</v>
       </c>
       <c r="F700" t="s">
@@ -21731,7 +21738,7 @@
       <c r="D701" t="s">
         <v>2075</v>
       </c>
-      <c r="E701">
+      <c r="E701" s="4">
         <v>0.7</v>
       </c>
       <c r="F701" t="s">
@@ -21751,7 +21758,7 @@
       <c r="D702" t="s">
         <v>2075</v>
       </c>
-      <c r="E702">
+      <c r="E702" s="4">
         <v>0.7</v>
       </c>
       <c r="F702" t="s">
@@ -21771,7 +21778,7 @@
       <c r="D703" t="s">
         <v>2075</v>
       </c>
-      <c r="E703">
+      <c r="E703" s="4">
         <v>0.7</v>
       </c>
       <c r="F703" t="s">
@@ -21791,7 +21798,7 @@
       <c r="D704" t="s">
         <v>2075</v>
       </c>
-      <c r="E704">
+      <c r="E704" s="4">
         <v>0.7</v>
       </c>
       <c r="F704" t="s">
@@ -21811,7 +21818,7 @@
       <c r="D705" t="s">
         <v>2075</v>
       </c>
-      <c r="E705">
+      <c r="E705" s="4">
         <v>0.7</v>
       </c>
       <c r="F705" t="s">
@@ -21831,7 +21838,7 @@
       <c r="D706" t="s">
         <v>2075</v>
       </c>
-      <c r="E706">
+      <c r="E706" s="4">
         <v>0.7</v>
       </c>
       <c r="F706" t="s">
@@ -21851,7 +21858,7 @@
       <c r="D707" t="s">
         <v>2075</v>
       </c>
-      <c r="E707">
+      <c r="E707" s="4">
         <v>0.7</v>
       </c>
       <c r="F707" t="s">
@@ -21871,7 +21878,7 @@
       <c r="D708" t="s">
         <v>2075</v>
       </c>
-      <c r="E708">
+      <c r="E708" s="4">
         <v>0.7</v>
       </c>
       <c r="F708" t="s">
@@ -21891,7 +21898,7 @@
       <c r="D709" t="s">
         <v>2075</v>
       </c>
-      <c r="E709">
+      <c r="E709" s="4">
         <v>0.7</v>
       </c>
       <c r="F709" t="s">
@@ -21911,7 +21918,7 @@
       <c r="D710" t="s">
         <v>2075</v>
       </c>
-      <c r="E710">
+      <c r="E710" s="4">
         <v>0.7</v>
       </c>
       <c r="F710" t="s">
@@ -21931,7 +21938,7 @@
       <c r="D711" t="s">
         <v>2075</v>
       </c>
-      <c r="E711">
+      <c r="E711" s="4">
         <v>0.7</v>
       </c>
       <c r="F711" t="s">
@@ -21951,7 +21958,7 @@
       <c r="D712" t="s">
         <v>2075</v>
       </c>
-      <c r="E712">
+      <c r="E712" s="4">
         <v>0.7</v>
       </c>
       <c r="F712" t="s">
@@ -21971,7 +21978,7 @@
       <c r="D713" t="s">
         <v>2075</v>
       </c>
-      <c r="E713">
+      <c r="E713" s="4">
         <v>0.7</v>
       </c>
       <c r="F713" t="s">
@@ -21991,7 +21998,7 @@
       <c r="D714" t="s">
         <v>2075</v>
       </c>
-      <c r="E714">
+      <c r="E714" s="4">
         <v>0.7</v>
       </c>
       <c r="F714" t="s">
@@ -22011,7 +22018,7 @@
       <c r="D715" t="s">
         <v>2075</v>
       </c>
-      <c r="E715">
+      <c r="E715" s="4">
         <v>0.7</v>
       </c>
       <c r="F715" t="s">
@@ -22031,7 +22038,7 @@
       <c r="D716" t="s">
         <v>2075</v>
       </c>
-      <c r="E716">
+      <c r="E716" s="4">
         <v>0.7</v>
       </c>
       <c r="F716" t="s">
@@ -22051,7 +22058,7 @@
       <c r="D717" t="s">
         <v>2075</v>
       </c>
-      <c r="E717">
+      <c r="E717" s="4">
         <v>0.7</v>
       </c>
       <c r="F717" t="s">
@@ -22071,7 +22078,7 @@
       <c r="D718" t="s">
         <v>2075</v>
       </c>
-      <c r="E718">
+      <c r="E718" s="4">
         <v>0.7</v>
       </c>
       <c r="F718" t="s">
@@ -22091,7 +22098,7 @@
       <c r="D719" t="s">
         <v>2075</v>
       </c>
-      <c r="E719">
+      <c r="E719" s="4">
         <v>0.7</v>
       </c>
       <c r="F719" t="s">
@@ -22111,7 +22118,7 @@
       <c r="D720" t="s">
         <v>2075</v>
       </c>
-      <c r="E720">
+      <c r="E720" s="4">
         <v>0.7</v>
       </c>
       <c r="F720" t="s">
@@ -22131,7 +22138,7 @@
       <c r="D721" t="s">
         <v>2075</v>
       </c>
-      <c r="E721">
+      <c r="E721" s="4">
         <v>0.7</v>
       </c>
       <c r="F721" t="s">
@@ -22151,7 +22158,7 @@
       <c r="D722" t="s">
         <v>2075</v>
       </c>
-      <c r="E722">
+      <c r="E722" s="4">
         <v>0.7</v>
       </c>
       <c r="F722" t="s">
@@ -22171,7 +22178,7 @@
       <c r="D723" t="s">
         <v>2075</v>
       </c>
-      <c r="E723">
+      <c r="E723" s="4">
         <v>0.7</v>
       </c>
       <c r="F723" t="s">
@@ -22191,7 +22198,7 @@
       <c r="D724" t="s">
         <v>2075</v>
       </c>
-      <c r="E724">
+      <c r="E724" s="4">
         <v>0.7</v>
       </c>
       <c r="F724" t="s">
@@ -22211,7 +22218,7 @@
       <c r="D725" t="s">
         <v>2075</v>
       </c>
-      <c r="E725">
+      <c r="E725" s="4">
         <v>0.7</v>
       </c>
       <c r="F725" t="s">
@@ -22231,7 +22238,7 @@
       <c r="D726" t="s">
         <v>2075</v>
       </c>
-      <c r="E726">
+      <c r="E726" s="4">
         <v>0.7</v>
       </c>
       <c r="F726" t="s">
@@ -22251,7 +22258,7 @@
       <c r="D727" t="s">
         <v>2075</v>
       </c>
-      <c r="E727">
+      <c r="E727" s="4">
         <v>0.7</v>
       </c>
       <c r="F727" t="s">
@@ -22271,7 +22278,7 @@
       <c r="D728" t="s">
         <v>2075</v>
       </c>
-      <c r="E728">
+      <c r="E728" s="4">
         <v>0.7</v>
       </c>
       <c r="F728" t="s">
@@ -22291,7 +22298,7 @@
       <c r="D729" t="s">
         <v>2075</v>
       </c>
-      <c r="E729">
+      <c r="E729" s="4">
         <v>0.7</v>
       </c>
       <c r="F729" t="s">
@@ -22311,7 +22318,7 @@
       <c r="D730" t="s">
         <v>2075</v>
       </c>
-      <c r="E730">
+      <c r="E730" s="4">
         <v>0.7</v>
       </c>
       <c r="F730" t="s">
@@ -22331,7 +22338,7 @@
       <c r="D731" t="s">
         <v>2075</v>
       </c>
-      <c r="E731">
+      <c r="E731" s="4">
         <v>0.7</v>
       </c>
       <c r="F731" t="s">
@@ -22351,7 +22358,7 @@
       <c r="D732" t="s">
         <v>2075</v>
       </c>
-      <c r="E732">
+      <c r="E732" s="4">
         <v>0.7</v>
       </c>
       <c r="F732" t="s">
@@ -22371,7 +22378,7 @@
       <c r="D733" t="s">
         <v>2075</v>
       </c>
-      <c r="E733">
+      <c r="E733" s="4">
         <v>0.7</v>
       </c>
       <c r="F733" t="s">
@@ -22391,7 +22398,7 @@
       <c r="D734" t="s">
         <v>2075</v>
       </c>
-      <c r="E734">
+      <c r="E734" s="4">
         <v>0.7</v>
       </c>
       <c r="F734" t="s">
@@ -22411,7 +22418,7 @@
       <c r="D735" t="s">
         <v>2075</v>
       </c>
-      <c r="E735">
+      <c r="E735" s="4">
         <v>0.7</v>
       </c>
       <c r="F735" t="s">
@@ -22431,7 +22438,7 @@
       <c r="D736" t="s">
         <v>2075</v>
       </c>
-      <c r="E736">
+      <c r="E736" s="4">
         <v>0.7</v>
       </c>
       <c r="F736" t="s">
@@ -22451,7 +22458,7 @@
       <c r="D737" t="s">
         <v>2075</v>
       </c>
-      <c r="E737">
+      <c r="E737" s="4">
         <v>0.7</v>
       </c>
       <c r="F737" t="s">
@@ -22471,7 +22478,7 @@
       <c r="D738" t="s">
         <v>2075</v>
       </c>
-      <c r="E738">
+      <c r="E738" s="4">
         <v>0.7</v>
       </c>
       <c r="F738" t="s">
@@ -22491,7 +22498,7 @@
       <c r="D739" t="s">
         <v>2075</v>
       </c>
-      <c r="E739">
+      <c r="E739" s="4">
         <v>0.7</v>
       </c>
       <c r="F739" t="s">
@@ -22511,7 +22518,7 @@
       <c r="D740" t="s">
         <v>2075</v>
       </c>
-      <c r="E740">
+      <c r="E740" s="4">
         <v>0.7</v>
       </c>
       <c r="F740" t="s">
@@ -22531,7 +22538,7 @@
       <c r="D741" t="s">
         <v>2075</v>
       </c>
-      <c r="E741">
+      <c r="E741" s="4">
         <v>0.7</v>
       </c>
       <c r="F741" t="s">
@@ -22551,7 +22558,7 @@
       <c r="D742" t="s">
         <v>2075</v>
       </c>
-      <c r="E742">
+      <c r="E742" s="4">
         <v>0.7</v>
       </c>
       <c r="F742" t="s">
@@ -22571,7 +22578,7 @@
       <c r="D743" t="s">
         <v>2075</v>
       </c>
-      <c r="E743">
+      <c r="E743" s="4">
         <v>0.7</v>
       </c>
       <c r="F743" t="s">
@@ -22591,7 +22598,7 @@
       <c r="D744" t="s">
         <v>2075</v>
       </c>
-      <c r="E744">
+      <c r="E744" s="4">
         <v>0.7</v>
       </c>
       <c r="F744" t="s">
@@ -22611,7 +22618,7 @@
       <c r="D745" t="s">
         <v>2075</v>
       </c>
-      <c r="E745">
+      <c r="E745" s="4">
         <v>0.7</v>
       </c>
       <c r="F745" t="s">
@@ -22631,7 +22638,7 @@
       <c r="D746" t="s">
         <v>2075</v>
       </c>
-      <c r="E746">
+      <c r="E746" s="4">
         <v>0.7</v>
       </c>
       <c r="F746" t="s">
@@ -22651,7 +22658,7 @@
       <c r="D747" t="s">
         <v>2075</v>
       </c>
-      <c r="E747">
+      <c r="E747" s="4">
         <v>0.7</v>
       </c>
       <c r="F747" t="s">
@@ -22671,7 +22678,7 @@
       <c r="D748" t="s">
         <v>2075</v>
       </c>
-      <c r="E748">
+      <c r="E748" s="4">
         <v>0.7</v>
       </c>
       <c r="F748" t="s">
@@ -22691,7 +22698,7 @@
       <c r="D749" t="s">
         <v>2075</v>
       </c>
-      <c r="E749">
+      <c r="E749" s="4">
         <v>0.7</v>
       </c>
       <c r="F749" t="s">
@@ -22711,7 +22718,7 @@
       <c r="D750" t="s">
         <v>2075</v>
       </c>
-      <c r="E750">
+      <c r="E750" s="4">
         <v>0.7</v>
       </c>
       <c r="F750" t="s">
@@ -22731,7 +22738,7 @@
       <c r="D751" t="s">
         <v>2075</v>
       </c>
-      <c r="E751">
+      <c r="E751" s="4">
         <v>0.7</v>
       </c>
       <c r="F751" t="s">
@@ -22751,7 +22758,7 @@
       <c r="D752" t="s">
         <v>2075</v>
       </c>
-      <c r="E752">
+      <c r="E752" s="4">
         <v>0.7</v>
       </c>
       <c r="F752" t="s">
@@ -22771,7 +22778,7 @@
       <c r="D753" t="s">
         <v>2075</v>
       </c>
-      <c r="E753">
+      <c r="E753" s="4">
         <v>0.7</v>
       </c>
       <c r="F753" t="s">
@@ -22791,7 +22798,7 @@
       <c r="D754" t="s">
         <v>2075</v>
       </c>
-      <c r="E754">
+      <c r="E754" s="4">
         <v>0.7</v>
       </c>
       <c r="F754" t="s">
@@ -22811,7 +22818,7 @@
       <c r="D755" t="s">
         <v>2075</v>
       </c>
-      <c r="E755">
+      <c r="E755" s="4">
         <v>0.7</v>
       </c>
       <c r="F755" t="s">
@@ -22831,7 +22838,7 @@
       <c r="D756" t="s">
         <v>2075</v>
       </c>
-      <c r="E756">
+      <c r="E756" s="4">
         <v>0.7</v>
       </c>
       <c r="F756" t="s">
@@ -22851,7 +22858,7 @@
       <c r="D757" t="s">
         <v>2075</v>
       </c>
-      <c r="E757">
+      <c r="E757" s="4">
         <v>0.7</v>
       </c>
       <c r="F757" t="s">
@@ -22871,7 +22878,7 @@
       <c r="D758" t="s">
         <v>2075</v>
       </c>
-      <c r="E758">
+      <c r="E758" s="4">
         <v>0.7</v>
       </c>
       <c r="F758" t="s">
@@ -22891,7 +22898,7 @@
       <c r="D759" t="s">
         <v>2075</v>
       </c>
-      <c r="E759">
+      <c r="E759" s="4">
         <v>0.7</v>
       </c>
       <c r="F759" t="s">
@@ -22911,7 +22918,7 @@
       <c r="D760" t="s">
         <v>2075</v>
       </c>
-      <c r="E760">
+      <c r="E760" s="4">
         <v>0.7</v>
       </c>
       <c r="F760" t="s">
@@ -22931,7 +22938,7 @@
       <c r="D761" t="s">
         <v>2075</v>
       </c>
-      <c r="E761">
+      <c r="E761" s="4">
         <v>0.7</v>
       </c>
       <c r="F761" t="s">
@@ -22951,11 +22958,11 @@
       <c r="D762" t="s">
         <v>2075</v>
       </c>
-      <c r="E762">
+      <c r="E762" s="4">
         <v>0.7</v>
       </c>
       <c r="F762" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.2">
@@ -22971,7 +22978,7 @@
       <c r="D763" t="s">
         <v>2075</v>
       </c>
-      <c r="E763">
+      <c r="E763" s="4">
         <v>0.7</v>
       </c>
       <c r="F763" t="s">
@@ -22991,7 +22998,7 @@
       <c r="D764" t="s">
         <v>2075</v>
       </c>
-      <c r="E764">
+      <c r="E764" s="4">
         <v>0.7</v>
       </c>
       <c r="F764" t="s">
@@ -23011,7 +23018,7 @@
       <c r="D765" t="s">
         <v>2075</v>
       </c>
-      <c r="E765">
+      <c r="E765" s="4">
         <v>0.7</v>
       </c>
       <c r="F765" t="s">
@@ -23031,7 +23038,7 @@
       <c r="D766" t="s">
         <v>2075</v>
       </c>
-      <c r="E766">
+      <c r="E766" s="4">
         <v>0.7</v>
       </c>
       <c r="F766" t="s">
@@ -23051,7 +23058,7 @@
       <c r="D767" t="s">
         <v>2075</v>
       </c>
-      <c r="E767">
+      <c r="E767" s="4">
         <v>0.7</v>
       </c>
       <c r="F767" t="s">
@@ -23071,7 +23078,7 @@
       <c r="D768" t="s">
         <v>2075</v>
       </c>
-      <c r="E768">
+      <c r="E768" s="4">
         <v>0.7</v>
       </c>
       <c r="F768" t="s">
@@ -23091,7 +23098,7 @@
       <c r="D769" t="s">
         <v>2075</v>
       </c>
-      <c r="E769">
+      <c r="E769" s="4">
         <v>0.7</v>
       </c>
       <c r="F769" t="s">
@@ -23111,7 +23118,7 @@
       <c r="D770" t="s">
         <v>2075</v>
       </c>
-      <c r="E770">
+      <c r="E770" s="4">
         <v>0.7</v>
       </c>
       <c r="F770" t="s">
@@ -23131,7 +23138,7 @@
       <c r="D771" t="s">
         <v>2075</v>
       </c>
-      <c r="E771">
+      <c r="E771" s="4">
         <v>0.7</v>
       </c>
       <c r="F771" t="s">
@@ -23151,7 +23158,7 @@
       <c r="D772" t="s">
         <v>2075</v>
       </c>
-      <c r="E772">
+      <c r="E772" s="4">
         <v>0.7</v>
       </c>
       <c r="F772" t="s">
@@ -23171,7 +23178,7 @@
       <c r="D773" t="s">
         <v>2075</v>
       </c>
-      <c r="E773">
+      <c r="E773" s="4">
         <v>0.7</v>
       </c>
       <c r="F773" t="s">
@@ -23191,7 +23198,7 @@
       <c r="D774" t="s">
         <v>2075</v>
       </c>
-      <c r="E774">
+      <c r="E774" s="4">
         <v>0.7</v>
       </c>
       <c r="F774" t="s">
@@ -23211,7 +23218,7 @@
       <c r="D775" t="s">
         <v>2075</v>
       </c>
-      <c r="E775">
+      <c r="E775" s="4">
         <v>0.7</v>
       </c>
       <c r="F775" t="s">
@@ -23231,7 +23238,7 @@
       <c r="D776" t="s">
         <v>2075</v>
       </c>
-      <c r="E776">
+      <c r="E776" s="4">
         <v>1</v>
       </c>
       <c r="F776" t="s">
@@ -23251,7 +23258,7 @@
       <c r="D777" t="s">
         <v>2075</v>
       </c>
-      <c r="E777">
+      <c r="E777" s="4">
         <v>1</v>
       </c>
       <c r="F777" t="s">
@@ -23271,7 +23278,7 @@
       <c r="D778" t="s">
         <v>2075</v>
       </c>
-      <c r="E778">
+      <c r="E778" s="4">
         <v>1</v>
       </c>
       <c r="F778" t="s">
@@ -23291,7 +23298,7 @@
       <c r="D779" t="s">
         <v>2075</v>
       </c>
-      <c r="E779">
+      <c r="E779" s="4">
         <v>1</v>
       </c>
       <c r="F779" t="s">
@@ -23311,7 +23318,7 @@
       <c r="D780" t="s">
         <v>2075</v>
       </c>
-      <c r="E780">
+      <c r="E780" s="4">
         <v>1</v>
       </c>
       <c r="F780" t="s">
@@ -23331,7 +23338,7 @@
       <c r="D781" t="s">
         <v>2075</v>
       </c>
-      <c r="E781">
+      <c r="E781" s="4">
         <v>1</v>
       </c>
       <c r="F781" t="s">
@@ -23351,7 +23358,7 @@
       <c r="D782" t="s">
         <v>2075</v>
       </c>
-      <c r="E782">
+      <c r="E782" s="4">
         <v>1</v>
       </c>
       <c r="F782" t="s">
@@ -23371,7 +23378,7 @@
       <c r="D783" t="s">
         <v>2075</v>
       </c>
-      <c r="E783">
+      <c r="E783" s="4">
         <v>1</v>
       </c>
       <c r="F783" t="s">
@@ -23391,7 +23398,7 @@
       <c r="D784" t="s">
         <v>2075</v>
       </c>
-      <c r="E784">
+      <c r="E784" s="4">
         <v>1</v>
       </c>
       <c r="F784" t="s">
@@ -23411,7 +23418,7 @@
       <c r="D785" t="s">
         <v>2075</v>
       </c>
-      <c r="E785">
+      <c r="E785" s="4">
         <v>1</v>
       </c>
       <c r="F785" t="s">
@@ -23431,7 +23438,7 @@
       <c r="D786" t="s">
         <v>2075</v>
       </c>
-      <c r="E786">
+      <c r="E786" s="4">
         <v>1</v>
       </c>
       <c r="F786" t="s">
@@ -23451,7 +23458,7 @@
       <c r="D787" t="s">
         <v>2075</v>
       </c>
-      <c r="E787">
+      <c r="E787" s="4">
         <v>1</v>
       </c>
       <c r="F787" t="s">
@@ -23471,7 +23478,7 @@
       <c r="D788" t="s">
         <v>2075</v>
       </c>
-      <c r="E788">
+      <c r="E788" s="4">
         <v>1</v>
       </c>
       <c r="F788" t="s">
@@ -23491,7 +23498,7 @@
       <c r="D789" t="s">
         <v>2075</v>
       </c>
-      <c r="E789">
+      <c r="E789" s="4">
         <v>1</v>
       </c>
       <c r="F789" t="s">
@@ -23511,7 +23518,7 @@
       <c r="D790" t="s">
         <v>2075</v>
       </c>
-      <c r="E790">
+      <c r="E790" s="4">
         <v>1</v>
       </c>
       <c r="F790" t="s">
@@ -23531,7 +23538,7 @@
       <c r="D791" t="s">
         <v>2075</v>
       </c>
-      <c r="E791">
+      <c r="E791" s="4">
         <v>1</v>
       </c>
       <c r="F791" t="s">
@@ -23551,7 +23558,7 @@
       <c r="D792" t="s">
         <v>2075</v>
       </c>
-      <c r="E792">
+      <c r="E792" s="4">
         <v>1</v>
       </c>
       <c r="F792" t="s">
@@ -23571,7 +23578,7 @@
       <c r="D793" t="s">
         <v>2075</v>
       </c>
-      <c r="E793">
+      <c r="E793" s="4">
         <v>1</v>
       </c>
       <c r="F793" t="s">
@@ -23591,7 +23598,7 @@
       <c r="D794" t="s">
         <v>2075</v>
       </c>
-      <c r="E794">
+      <c r="E794" s="4">
         <v>1</v>
       </c>
       <c r="F794" t="s">
@@ -23611,7 +23618,7 @@
       <c r="D795" t="s">
         <v>2075</v>
       </c>
-      <c r="E795">
+      <c r="E795" s="4">
         <v>1</v>
       </c>
       <c r="F795" t="s">
@@ -23631,7 +23638,7 @@
       <c r="D796" t="s">
         <v>2075</v>
       </c>
-      <c r="E796">
+      <c r="E796" s="4">
         <v>1</v>
       </c>
       <c r="F796" t="s">
@@ -23651,7 +23658,7 @@
       <c r="D797" t="s">
         <v>2075</v>
       </c>
-      <c r="E797">
+      <c r="E797" s="4">
         <v>1</v>
       </c>
       <c r="F797" t="s">
@@ -23671,7 +23678,7 @@
       <c r="D798" t="s">
         <v>2075</v>
       </c>
-      <c r="E798">
+      <c r="E798" s="4">
         <v>1</v>
       </c>
       <c r="F798" t="s">
@@ -23691,7 +23698,7 @@
       <c r="D799" t="s">
         <v>2075</v>
       </c>
-      <c r="E799">
+      <c r="E799" s="4">
         <v>1</v>
       </c>
       <c r="F799" t="s">
@@ -23711,7 +23718,7 @@
       <c r="D800" t="s">
         <v>2075</v>
       </c>
-      <c r="E800">
+      <c r="E800" s="4">
         <v>1</v>
       </c>
       <c r="F800" t="s">
@@ -23731,7 +23738,7 @@
       <c r="D801" t="s">
         <v>2075</v>
       </c>
-      <c r="E801">
+      <c r="E801" s="4">
         <v>1</v>
       </c>
       <c r="F801" t="s">
@@ -23751,7 +23758,7 @@
       <c r="D802" t="s">
         <v>2075</v>
       </c>
-      <c r="E802">
+      <c r="E802" s="4">
         <v>1</v>
       </c>
       <c r="F802" t="s">
@@ -23771,7 +23778,7 @@
       <c r="D803" t="s">
         <v>2075</v>
       </c>
-      <c r="E803">
+      <c r="E803" s="4">
         <v>1</v>
       </c>
       <c r="F803" t="s">
@@ -23791,7 +23798,7 @@
       <c r="D804" t="s">
         <v>2075</v>
       </c>
-      <c r="E804">
+      <c r="E804" s="4">
         <v>1</v>
       </c>
       <c r="F804" t="s">
@@ -23811,7 +23818,7 @@
       <c r="D805" t="s">
         <v>2075</v>
       </c>
-      <c r="E805">
+      <c r="E805" s="4">
         <v>1</v>
       </c>
       <c r="F805" t="s">
@@ -23831,7 +23838,7 @@
       <c r="D806" t="s">
         <v>2075</v>
       </c>
-      <c r="E806">
+      <c r="E806" s="4">
         <v>1</v>
       </c>
       <c r="F806" t="s">
@@ -23851,7 +23858,7 @@
       <c r="D807" t="s">
         <v>2075</v>
       </c>
-      <c r="E807">
+      <c r="E807" s="4">
         <v>1</v>
       </c>
       <c r="F807" t="s">
@@ -23871,7 +23878,7 @@
       <c r="D808" t="s">
         <v>2075</v>
       </c>
-      <c r="E808">
+      <c r="E808" s="4">
         <v>1</v>
       </c>
       <c r="F808" t="s">
@@ -23891,7 +23898,7 @@
       <c r="D809" t="s">
         <v>2075</v>
       </c>
-      <c r="E809">
+      <c r="E809" s="4">
         <v>1</v>
       </c>
       <c r="F809" t="s">
@@ -23911,7 +23918,7 @@
       <c r="D810" t="s">
         <v>2075</v>
       </c>
-      <c r="E810">
+      <c r="E810" s="4">
         <v>1</v>
       </c>
       <c r="F810" t="s">
@@ -23931,7 +23938,7 @@
       <c r="D811" t="s">
         <v>2075</v>
       </c>
-      <c r="E811">
+      <c r="E811" s="4">
         <v>1</v>
       </c>
       <c r="F811" t="s">
@@ -23951,7 +23958,7 @@
       <c r="D812" t="s">
         <v>2075</v>
       </c>
-      <c r="E812">
+      <c r="E812" s="4">
         <v>1</v>
       </c>
       <c r="F812" t="s">
@@ -23971,7 +23978,7 @@
       <c r="D813" t="s">
         <v>2075</v>
       </c>
-      <c r="E813">
+      <c r="E813" s="4">
         <v>1</v>
       </c>
       <c r="F813" t="s">
@@ -23991,7 +23998,7 @@
       <c r="D814" t="s">
         <v>2075</v>
       </c>
-      <c r="E814">
+      <c r="E814" s="4">
         <v>1</v>
       </c>
       <c r="F814" t="s">
@@ -24011,7 +24018,7 @@
       <c r="D815" t="s">
         <v>2075</v>
       </c>
-      <c r="E815">
+      <c r="E815" s="4">
         <v>1</v>
       </c>
       <c r="F815" t="s">
@@ -24031,7 +24038,7 @@
       <c r="D816" t="s">
         <v>2075</v>
       </c>
-      <c r="E816">
+      <c r="E816" s="4">
         <v>1</v>
       </c>
       <c r="F816" t="s">
@@ -25011,7 +25018,7 @@
       <c r="D865" t="s">
         <v>2065</v>
       </c>
-      <c r="E865">
+      <c r="E865" s="4">
         <v>1</v>
       </c>
       <c r="F865" t="s">
@@ -25031,7 +25038,7 @@
       <c r="D866" t="s">
         <v>2065</v>
       </c>
-      <c r="E866">
+      <c r="E866" s="4">
         <v>1</v>
       </c>
       <c r="F866" t="s">
@@ -25051,7 +25058,7 @@
       <c r="D867" t="s">
         <v>2065</v>
       </c>
-      <c r="E867">
+      <c r="E867" s="4">
         <v>1</v>
       </c>
       <c r="F867" t="s">
@@ -25071,7 +25078,7 @@
       <c r="D868" t="s">
         <v>2065</v>
       </c>
-      <c r="E868">
+      <c r="E868" s="4">
         <v>1</v>
       </c>
       <c r="F868" t="s">
@@ -25091,7 +25098,7 @@
       <c r="D869" t="s">
         <v>2065</v>
       </c>
-      <c r="E869">
+      <c r="E869" s="4">
         <v>1</v>
       </c>
       <c r="F869" t="s">
@@ -25111,7 +25118,7 @@
       <c r="D870" t="s">
         <v>2065</v>
       </c>
-      <c r="E870">
+      <c r="E870" s="4">
         <v>1</v>
       </c>
       <c r="F870" t="s">
@@ -25131,7 +25138,7 @@
       <c r="D871" t="s">
         <v>2065</v>
       </c>
-      <c r="E871">
+      <c r="E871" s="4">
         <v>1</v>
       </c>
       <c r="F871" t="s">
@@ -25151,7 +25158,7 @@
       <c r="D872" t="s">
         <v>2065</v>
       </c>
-      <c r="E872">
+      <c r="E872" s="4">
         <v>1</v>
       </c>
       <c r="F872" t="s">
@@ -25171,7 +25178,7 @@
       <c r="D873" t="s">
         <v>2065</v>
       </c>
-      <c r="E873">
+      <c r="E873" s="4">
         <v>1</v>
       </c>
       <c r="F873" t="s">
@@ -25191,7 +25198,7 @@
       <c r="D874" t="s">
         <v>2065</v>
       </c>
-      <c r="E874">
+      <c r="E874" s="4">
         <v>1</v>
       </c>
       <c r="F874" t="s">
@@ -25211,7 +25218,7 @@
       <c r="D875" t="s">
         <v>2065</v>
       </c>
-      <c r="E875">
+      <c r="E875" s="4">
         <v>1</v>
       </c>
       <c r="F875" t="s">
@@ -25231,7 +25238,7 @@
       <c r="D876" t="s">
         <v>2065</v>
       </c>
-      <c r="E876">
+      <c r="E876" s="4">
         <v>1</v>
       </c>
       <c r="F876" t="s">
@@ -25251,7 +25258,7 @@
       <c r="D877" t="s">
         <v>2065</v>
       </c>
-      <c r="E877">
+      <c r="E877" s="4">
         <v>1</v>
       </c>
       <c r="F877" t="s">
@@ -25271,7 +25278,7 @@
       <c r="D878" t="s">
         <v>2065</v>
       </c>
-      <c r="E878">
+      <c r="E878" s="4">
         <v>1</v>
       </c>
       <c r="F878" t="s">
@@ -25291,7 +25298,7 @@
       <c r="D879" t="s">
         <v>2076</v>
       </c>
-      <c r="E879">
+      <c r="E879" s="4">
         <v>0.7</v>
       </c>
       <c r="F879" t="s">
@@ -25311,7 +25318,7 @@
       <c r="D880" t="s">
         <v>2076</v>
       </c>
-      <c r="E880">
+      <c r="E880" s="4">
         <v>0.7</v>
       </c>
       <c r="F880" t="s">
@@ -25331,7 +25338,7 @@
       <c r="D881" t="s">
         <v>2076</v>
       </c>
-      <c r="E881">
+      <c r="E881" s="4">
         <v>0.7</v>
       </c>
       <c r="F881" t="s">
@@ -25351,7 +25358,7 @@
       <c r="D882" t="s">
         <v>2076</v>
       </c>
-      <c r="E882">
+      <c r="E882" s="4">
         <v>0.7</v>
       </c>
       <c r="F882" t="s">
@@ -25371,7 +25378,7 @@
       <c r="D883" t="s">
         <v>2076</v>
       </c>
-      <c r="E883">
+      <c r="E883" s="4">
         <v>0.7</v>
       </c>
       <c r="F883" t="s">
@@ -25391,7 +25398,7 @@
       <c r="D884" t="s">
         <v>2076</v>
       </c>
-      <c r="E884">
+      <c r="E884" s="4">
         <v>0.7</v>
       </c>
       <c r="F884" t="s">
@@ -25411,7 +25418,7 @@
       <c r="D885" t="s">
         <v>2076</v>
       </c>
-      <c r="E885">
+      <c r="E885" s="4">
         <v>0.7</v>
       </c>
       <c r="F885" t="s">
@@ -25431,7 +25438,7 @@
       <c r="D886" t="s">
         <v>2076</v>
       </c>
-      <c r="E886">
+      <c r="E886" s="4">
         <v>0.7</v>
       </c>
       <c r="F886" t="s">
@@ -25451,7 +25458,7 @@
       <c r="D887" t="s">
         <v>2076</v>
       </c>
-      <c r="E887">
+      <c r="E887" s="4">
         <v>0.7</v>
       </c>
       <c r="F887" t="s">
@@ -25471,7 +25478,7 @@
       <c r="D888" t="s">
         <v>2076</v>
       </c>
-      <c r="E888">
+      <c r="E888" s="4">
         <v>0.7</v>
       </c>
       <c r="F888" t="s">
@@ -25491,7 +25498,7 @@
       <c r="D889" t="s">
         <v>2076</v>
       </c>
-      <c r="E889">
+      <c r="E889" s="4">
         <v>0.7</v>
       </c>
       <c r="F889" t="s">
@@ -25511,7 +25518,7 @@
       <c r="D890" t="s">
         <v>2076</v>
       </c>
-      <c r="E890">
+      <c r="E890" s="4">
         <v>0.7</v>
       </c>
       <c r="F890" t="s">
@@ -25531,7 +25538,7 @@
       <c r="D891" t="s">
         <v>2076</v>
       </c>
-      <c r="E891">
+      <c r="E891" s="4">
         <v>0.7</v>
       </c>
       <c r="F891" t="s">
@@ -25551,7 +25558,7 @@
       <c r="D892" t="s">
         <v>2076</v>
       </c>
-      <c r="E892">
+      <c r="E892" s="4">
         <v>0.7</v>
       </c>
       <c r="F892" t="s">
@@ -25571,7 +25578,7 @@
       <c r="D893" t="s">
         <v>2076</v>
       </c>
-      <c r="E893">
+      <c r="E893" s="4">
         <v>0.7</v>
       </c>
       <c r="F893" t="s">
@@ -25591,7 +25598,7 @@
       <c r="D894" t="s">
         <v>2076</v>
       </c>
-      <c r="E894">
+      <c r="E894" s="4">
         <v>0.7</v>
       </c>
       <c r="F894" t="s">
@@ -25611,7 +25618,7 @@
       <c r="D895" t="s">
         <v>2076</v>
       </c>
-      <c r="E895">
+      <c r="E895" s="4">
         <v>0.7</v>
       </c>
       <c r="F895" t="s">
@@ -25631,7 +25638,7 @@
       <c r="D896" t="s">
         <v>2076</v>
       </c>
-      <c r="E896">
+      <c r="E896" s="4">
         <v>0.7</v>
       </c>
       <c r="F896" t="s">
@@ -25651,7 +25658,7 @@
       <c r="D897" t="s">
         <v>2076</v>
       </c>
-      <c r="E897">
+      <c r="E897" s="4">
         <v>0.7</v>
       </c>
       <c r="F897" t="s">
@@ -25671,7 +25678,7 @@
       <c r="D898" t="s">
         <v>2076</v>
       </c>
-      <c r="E898">
+      <c r="E898" s="4">
         <v>0.7</v>
       </c>
       <c r="F898" t="s">
@@ -25691,7 +25698,7 @@
       <c r="D899" t="s">
         <v>2076</v>
       </c>
-      <c r="E899">
+      <c r="E899" s="4">
         <v>0.7</v>
       </c>
       <c r="F899" t="s">
@@ -25711,7 +25718,7 @@
       <c r="D900" t="s">
         <v>2076</v>
       </c>
-      <c r="E900">
+      <c r="E900" s="4">
         <v>0.7</v>
       </c>
       <c r="F900" t="s">
@@ -25731,7 +25738,7 @@
       <c r="D901" t="s">
         <v>2076</v>
       </c>
-      <c r="E901">
+      <c r="E901" s="4">
         <v>0.7</v>
       </c>
       <c r="F901" t="s">
@@ -25751,7 +25758,7 @@
       <c r="D902" t="s">
         <v>2076</v>
       </c>
-      <c r="E902">
+      <c r="E902" s="4">
         <v>0.7</v>
       </c>
       <c r="F902" t="s">
@@ -25771,7 +25778,7 @@
       <c r="D903" t="s">
         <v>2076</v>
       </c>
-      <c r="E903">
+      <c r="E903" s="4">
         <v>0.7</v>
       </c>
       <c r="F903" t="s">
@@ -25791,7 +25798,7 @@
       <c r="D904" t="s">
         <v>2076</v>
       </c>
-      <c r="E904">
+      <c r="E904" s="4">
         <v>0.7</v>
       </c>
       <c r="F904" t="s">
@@ -25811,7 +25818,7 @@
       <c r="D905" t="s">
         <v>2076</v>
       </c>
-      <c r="E905">
+      <c r="E905" s="4">
         <v>0.7</v>
       </c>
       <c r="F905" t="s">
@@ -25831,7 +25838,7 @@
       <c r="D906" t="s">
         <v>2076</v>
       </c>
-      <c r="E906">
+      <c r="E906" s="4">
         <v>0.7</v>
       </c>
       <c r="F906" t="s">
@@ -25851,7 +25858,7 @@
       <c r="D907" t="s">
         <v>2076</v>
       </c>
-      <c r="E907">
+      <c r="E907" s="4">
         <v>0.7</v>
       </c>
       <c r="F907" t="s">
@@ -25871,7 +25878,7 @@
       <c r="D908" t="s">
         <v>2076</v>
       </c>
-      <c r="E908">
+      <c r="E908" s="4">
         <v>0.7</v>
       </c>
       <c r="F908" t="s">
@@ -25891,7 +25898,7 @@
       <c r="D909" t="s">
         <v>2076</v>
       </c>
-      <c r="E909">
+      <c r="E909" s="4">
         <v>0.7</v>
       </c>
       <c r="F909" t="s">
@@ -25911,7 +25918,7 @@
       <c r="D910" t="s">
         <v>2076</v>
       </c>
-      <c r="E910">
+      <c r="E910" s="4">
         <v>0.7</v>
       </c>
       <c r="F910" t="s">
@@ -25931,7 +25938,7 @@
       <c r="D911" t="s">
         <v>2076</v>
       </c>
-      <c r="E911">
+      <c r="E911" s="4">
         <v>0.7</v>
       </c>
       <c r="F911" t="s">
@@ -25951,7 +25958,7 @@
       <c r="D912" t="s">
         <v>2076</v>
       </c>
-      <c r="E912">
+      <c r="E912" s="4">
         <v>0.7</v>
       </c>
       <c r="F912" t="s">
@@ -25971,7 +25978,7 @@
       <c r="D913" t="s">
         <v>2076</v>
       </c>
-      <c r="E913">
+      <c r="E913" s="4">
         <v>0.7</v>
       </c>
       <c r="F913" t="s">
@@ -25991,7 +25998,7 @@
       <c r="D914" t="s">
         <v>2076</v>
       </c>
-      <c r="E914">
+      <c r="E914" s="4">
         <v>0.7</v>
       </c>
       <c r="F914" t="s">
@@ -26011,7 +26018,7 @@
       <c r="D915" t="s">
         <v>2076</v>
       </c>
-      <c r="E915">
+      <c r="E915" s="4">
         <v>0.7</v>
       </c>
       <c r="F915" t="s">
@@ -26031,7 +26038,7 @@
       <c r="D916" t="s">
         <v>2076</v>
       </c>
-      <c r="E916">
+      <c r="E916" s="4">
         <v>0.7</v>
       </c>
       <c r="F916" t="s">
@@ -26051,7 +26058,7 @@
       <c r="D917" t="s">
         <v>2076</v>
       </c>
-      <c r="E917">
+      <c r="E917" s="4">
         <v>0.7</v>
       </c>
       <c r="F917" t="s">
@@ -26071,7 +26078,7 @@
       <c r="D918" t="s">
         <v>2076</v>
       </c>
-      <c r="E918">
+      <c r="E918" s="4">
         <v>0.7</v>
       </c>
       <c r="F918" t="s">
@@ -26091,7 +26098,7 @@
       <c r="D919" t="s">
         <v>2076</v>
       </c>
-      <c r="E919">
+      <c r="E919" s="4">
         <v>0.7</v>
       </c>
       <c r="F919" t="s">
@@ -26111,7 +26118,7 @@
       <c r="D920" t="s">
         <v>2076</v>
       </c>
-      <c r="E920">
+      <c r="E920" s="4">
         <v>0.7</v>
       </c>
       <c r="F920" t="s">
@@ -26131,7 +26138,7 @@
       <c r="D921" t="s">
         <v>2076</v>
       </c>
-      <c r="E921">
+      <c r="E921" s="4">
         <v>0.7</v>
       </c>
       <c r="F921" t="s">
@@ -26151,7 +26158,7 @@
       <c r="D922" t="s">
         <v>2076</v>
       </c>
-      <c r="E922">
+      <c r="E922" s="4">
         <v>0.7</v>
       </c>
       <c r="F922" t="s">
@@ -26171,7 +26178,7 @@
       <c r="D923" t="s">
         <v>2076</v>
       </c>
-      <c r="E923">
+      <c r="E923" s="4">
         <v>0.7</v>
       </c>
       <c r="F923" t="s">
@@ -26191,7 +26198,7 @@
       <c r="D924" t="s">
         <v>2076</v>
       </c>
-      <c r="E924">
+      <c r="E924" s="4">
         <v>0.7</v>
       </c>
       <c r="F924" t="s">
@@ -26211,7 +26218,7 @@
       <c r="D925" t="s">
         <v>2076</v>
       </c>
-      <c r="E925">
+      <c r="E925" s="4">
         <v>0.7</v>
       </c>
       <c r="F925" t="s">
@@ -26231,7 +26238,7 @@
       <c r="D926" t="s">
         <v>2076</v>
       </c>
-      <c r="E926">
+      <c r="E926" s="4">
         <v>0.7</v>
       </c>
       <c r="F926" t="s">
@@ -26251,7 +26258,7 @@
       <c r="D927" t="s">
         <v>2076</v>
       </c>
-      <c r="E927">
+      <c r="E927" s="4">
         <v>0.7</v>
       </c>
       <c r="F927" t="s">
@@ -26271,7 +26278,7 @@
       <c r="D928" t="s">
         <v>2076</v>
       </c>
-      <c r="E928">
+      <c r="E928" s="4">
         <v>0.7</v>
       </c>
       <c r="F928" t="s">
@@ -26291,7 +26298,7 @@
       <c r="D929" t="s">
         <v>2076</v>
       </c>
-      <c r="E929">
+      <c r="E929" s="4">
         <v>0.7</v>
       </c>
       <c r="F929" t="s">
@@ -26311,7 +26318,7 @@
       <c r="D930" t="s">
         <v>2076</v>
       </c>
-      <c r="E930">
+      <c r="E930" s="4">
         <v>0.7</v>
       </c>
       <c r="F930" t="s">
@@ -26331,7 +26338,7 @@
       <c r="D931" t="s">
         <v>2076</v>
       </c>
-      <c r="E931">
+      <c r="E931" s="4">
         <v>0.7</v>
       </c>
       <c r="F931" t="s">
@@ -26351,7 +26358,7 @@
       <c r="D932" t="s">
         <v>2076</v>
       </c>
-      <c r="E932">
+      <c r="E932" s="4">
         <v>0.7</v>
       </c>
       <c r="F932" t="s">
@@ -26371,7 +26378,7 @@
       <c r="D933" t="s">
         <v>2076</v>
       </c>
-      <c r="E933">
+      <c r="E933" s="4">
         <v>0.7</v>
       </c>
       <c r="F933" t="s">
@@ -26391,7 +26398,7 @@
       <c r="D934" t="s">
         <v>2076</v>
       </c>
-      <c r="E934">
+      <c r="E934" s="4">
         <v>0.7</v>
       </c>
       <c r="F934" t="s">
@@ -26411,7 +26418,7 @@
       <c r="D935" t="s">
         <v>2076</v>
       </c>
-      <c r="E935">
+      <c r="E935" s="4">
         <v>0.7</v>
       </c>
       <c r="F935" t="s">
@@ -26431,7 +26438,7 @@
       <c r="D936" t="s">
         <v>2076</v>
       </c>
-      <c r="E936">
+      <c r="E936" s="4">
         <v>0.7</v>
       </c>
       <c r="F936" t="s">
@@ -26451,7 +26458,7 @@
       <c r="D937" t="s">
         <v>2076</v>
       </c>
-      <c r="E937">
+      <c r="E937" s="4">
         <v>0.7</v>
       </c>
       <c r="F937" t="s">
@@ -26471,7 +26478,7 @@
       <c r="D938" t="s">
         <v>2076</v>
       </c>
-      <c r="E938">
+      <c r="E938" s="4">
         <v>0.7</v>
       </c>
       <c r="F938" t="s">
@@ -26491,7 +26498,7 @@
       <c r="D939" t="s">
         <v>2076</v>
       </c>
-      <c r="E939">
+      <c r="E939" s="4">
         <v>0.7</v>
       </c>
       <c r="F939" t="s">
@@ -26511,7 +26518,7 @@
       <c r="D940" t="s">
         <v>2076</v>
       </c>
-      <c r="E940">
+      <c r="E940" s="4">
         <v>0.7</v>
       </c>
       <c r="F940" t="s">
@@ -26531,7 +26538,7 @@
       <c r="D941" t="s">
         <v>2076</v>
       </c>
-      <c r="E941">
+      <c r="E941" s="4">
         <v>0.7</v>
       </c>
       <c r="F941" t="s">
@@ -26551,7 +26558,7 @@
       <c r="D942" t="s">
         <v>2076</v>
       </c>
-      <c r="E942">
+      <c r="E942" s="4">
         <v>0.7</v>
       </c>
       <c r="F942" t="s">
@@ -26571,7 +26578,7 @@
       <c r="D943" t="s">
         <v>2076</v>
       </c>
-      <c r="E943">
+      <c r="E943" s="4">
         <v>0.7</v>
       </c>
       <c r="F943" t="s">
@@ -26591,7 +26598,7 @@
       <c r="D944" t="s">
         <v>2076</v>
       </c>
-      <c r="E944">
+      <c r="E944" s="4">
         <v>0.7</v>
       </c>
       <c r="F944" t="s">
@@ -26611,7 +26618,7 @@
       <c r="D945" t="s">
         <v>2076</v>
       </c>
-      <c r="E945">
+      <c r="E945" s="4">
         <v>0.7</v>
       </c>
       <c r="F945" t="s">
@@ -26631,7 +26638,7 @@
       <c r="D946" t="s">
         <v>2076</v>
       </c>
-      <c r="E946">
+      <c r="E946" s="4">
         <v>0.7</v>
       </c>
       <c r="F946" t="s">
@@ -26651,7 +26658,7 @@
       <c r="D947" t="s">
         <v>2076</v>
       </c>
-      <c r="E947">
+      <c r="E947" s="4">
         <v>0.7</v>
       </c>
       <c r="F947" t="s">
@@ -26671,7 +26678,7 @@
       <c r="D948" t="s">
         <v>2076</v>
       </c>
-      <c r="E948">
+      <c r="E948" s="4">
         <v>0.7</v>
       </c>
       <c r="F948" t="s">
@@ -26691,7 +26698,7 @@
       <c r="D949" t="s">
         <v>2076</v>
       </c>
-      <c r="E949">
+      <c r="E949" s="4">
         <v>0.7</v>
       </c>
       <c r="F949" t="s">
@@ -29515,7 +29522,7 @@
         <v>1676</v>
       </c>
       <c r="F1090" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1091" spans="1:6" x14ac:dyDescent="0.2">
@@ -29535,7 +29542,7 @@
         <v>1676</v>
       </c>
       <c r="F1091" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.2">
@@ -29595,7 +29602,7 @@
         <v>1676</v>
       </c>
       <c r="F1094" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1095" spans="1:6" x14ac:dyDescent="0.2">
@@ -29655,7 +29662,7 @@
         <v>1676</v>
       </c>
       <c r="F1097" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1098" spans="1:6" x14ac:dyDescent="0.2">
@@ -29755,7 +29762,7 @@
         <v>1676</v>
       </c>
       <c r="F1102" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.2">
@@ -29775,7 +29782,7 @@
         <v>1676</v>
       </c>
       <c r="F1103" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.2">
@@ -29795,7 +29802,7 @@
         <v>1676</v>
       </c>
       <c r="F1104" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.2">
@@ -29815,7 +29822,7 @@
         <v>1676</v>
       </c>
       <c r="F1105" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.2">
@@ -29835,7 +29842,7 @@
         <v>1676</v>
       </c>
       <c r="F1106" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.2">
@@ -29875,7 +29882,7 @@
         <v>1676</v>
       </c>
       <c r="F1108" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.2">
@@ -29895,7 +29902,7 @@
         <v>1676</v>
       </c>
       <c r="F1109" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.2">
@@ -29935,7 +29942,7 @@
         <v>1676</v>
       </c>
       <c r="F1111" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.2">
@@ -29955,7 +29962,7 @@
         <v>1676</v>
       </c>
       <c r="F1112" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.2">
@@ -30035,7 +30042,7 @@
         <v>1676</v>
       </c>
       <c r="F1116" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.2">
@@ -30055,7 +30062,7 @@
         <v>1676</v>
       </c>
       <c r="F1117" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1118" spans="1:6" x14ac:dyDescent="0.2">
@@ -30843,7 +30850,7 @@
         <v>320</v>
       </c>
       <c r="B1157" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1157" t="s">
         <v>1676</v>
@@ -30863,7 +30870,7 @@
         <v>321</v>
       </c>
       <c r="B1158" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1158" t="s">
         <v>1676</v>
@@ -30883,7 +30890,7 @@
         <v>322</v>
       </c>
       <c r="B1159" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1159" t="s">
         <v>1676</v>
@@ -30903,7 +30910,7 @@
         <v>323</v>
       </c>
       <c r="B1160" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1160" t="s">
         <v>1676</v>
@@ -30923,7 +30930,7 @@
         <v>324</v>
       </c>
       <c r="B1161" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1161" t="s">
         <v>1676</v>
@@ -30943,7 +30950,7 @@
         <v>325</v>
       </c>
       <c r="B1162" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1162" t="s">
         <v>1676</v>
@@ -30963,7 +30970,7 @@
         <v>326</v>
       </c>
       <c r="B1163" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1163" t="s">
         <v>1676</v>
@@ -30983,7 +30990,7 @@
         <v>327</v>
       </c>
       <c r="B1164" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1164" t="s">
         <v>1676</v>
@@ -31003,7 +31010,7 @@
         <v>328</v>
       </c>
       <c r="B1165" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1165" t="s">
         <v>1676</v>
@@ -31023,7 +31030,7 @@
         <v>329</v>
       </c>
       <c r="B1166" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1166" t="s">
         <v>1676</v>
@@ -31043,7 +31050,7 @@
         <v>330</v>
       </c>
       <c r="B1167" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1167" t="s">
         <v>1676</v>
@@ -31063,7 +31070,7 @@
         <v>331</v>
       </c>
       <c r="B1168" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1168" t="s">
         <v>1676</v>
@@ -31083,7 +31090,7 @@
         <v>332</v>
       </c>
       <c r="B1169" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1169" t="s">
         <v>1676</v>
@@ -31103,7 +31110,7 @@
         <v>333</v>
       </c>
       <c r="B1170" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1170" t="s">
         <v>1676</v>
@@ -31123,7 +31130,7 @@
         <v>334</v>
       </c>
       <c r="B1171" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1171" t="s">
         <v>1676</v>
@@ -31143,7 +31150,7 @@
         <v>335</v>
       </c>
       <c r="B1172" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1172" t="s">
         <v>1676</v>
@@ -31163,7 +31170,7 @@
         <v>336</v>
       </c>
       <c r="B1173" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1173" t="s">
         <v>1676</v>
@@ -31183,7 +31190,7 @@
         <v>337</v>
       </c>
       <c r="B1174" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1174" t="s">
         <v>1676</v>
@@ -31203,7 +31210,7 @@
         <v>338</v>
       </c>
       <c r="B1175" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1175" t="s">
         <v>1676</v>
@@ -31223,7 +31230,7 @@
         <v>339</v>
       </c>
       <c r="B1176" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1176" t="s">
         <v>1676</v>
@@ -31243,7 +31250,7 @@
         <v>340</v>
       </c>
       <c r="B1177" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1177" t="s">
         <v>1676</v>
@@ -31263,7 +31270,7 @@
         <v>341</v>
       </c>
       <c r="B1178" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1178" t="s">
         <v>1676</v>
@@ -31283,7 +31290,7 @@
         <v>342</v>
       </c>
       <c r="B1179" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1179" t="s">
         <v>1676</v>
@@ -31303,7 +31310,7 @@
         <v>343</v>
       </c>
       <c r="B1180" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1180" t="s">
         <v>1676</v>
@@ -31323,7 +31330,7 @@
         <v>344</v>
       </c>
       <c r="B1181" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1181" t="s">
         <v>1676</v>
@@ -31343,7 +31350,7 @@
         <v>345</v>
       </c>
       <c r="B1182" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1182" t="s">
         <v>1676</v>
@@ -31363,7 +31370,7 @@
         <v>346</v>
       </c>
       <c r="B1183" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1183" t="s">
         <v>1676</v>
@@ -31383,7 +31390,7 @@
         <v>347</v>
       </c>
       <c r="B1184" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1184" t="s">
         <v>1676</v>
@@ -31403,7 +31410,7 @@
         <v>348</v>
       </c>
       <c r="B1185" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1185" t="s">
         <v>1676</v>
@@ -31423,7 +31430,7 @@
         <v>349</v>
       </c>
       <c r="B1186" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1186" t="s">
         <v>1676</v>
@@ -31443,7 +31450,7 @@
         <v>350</v>
       </c>
       <c r="B1187" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1187" t="s">
         <v>1676</v>
@@ -31463,7 +31470,7 @@
         <v>351</v>
       </c>
       <c r="B1188" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1188" t="s">
         <v>1676</v>
@@ -31483,7 +31490,7 @@
         <v>352</v>
       </c>
       <c r="B1189" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1189" t="s">
         <v>1676</v>
@@ -31503,7 +31510,7 @@
         <v>353</v>
       </c>
       <c r="B1190" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1190" t="s">
         <v>1676</v>
@@ -31523,7 +31530,7 @@
         <v>354</v>
       </c>
       <c r="B1191" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1191" t="s">
         <v>1676</v>
@@ -31543,7 +31550,7 @@
         <v>355</v>
       </c>
       <c r="B1192" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1192" t="s">
         <v>1676</v>
@@ -31563,7 +31570,7 @@
         <v>356</v>
       </c>
       <c r="B1193" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1193" t="s">
         <v>1676</v>
@@ -31583,7 +31590,7 @@
         <v>357</v>
       </c>
       <c r="B1194" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1194" t="s">
         <v>1676</v>
@@ -31603,7 +31610,7 @@
         <v>358</v>
       </c>
       <c r="B1195" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1195" t="s">
         <v>1676</v>
@@ -31623,7 +31630,7 @@
         <v>359</v>
       </c>
       <c r="B1196" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1196" t="s">
         <v>1676</v>
@@ -31643,7 +31650,7 @@
         <v>360</v>
       </c>
       <c r="B1197" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1197" t="s">
         <v>1676</v>
@@ -31663,7 +31670,7 @@
         <v>361</v>
       </c>
       <c r="B1198" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1198" t="s">
         <v>1676</v>
@@ -31683,7 +31690,7 @@
         <v>362</v>
       </c>
       <c r="B1199" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1199" t="s">
         <v>1676</v>
@@ -31703,7 +31710,7 @@
         <v>363</v>
       </c>
       <c r="B1200" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1200" t="s">
         <v>1676</v>
@@ -31723,7 +31730,7 @@
         <v>364</v>
       </c>
       <c r="B1201" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1201" t="s">
         <v>1676</v>
@@ -31743,7 +31750,7 @@
         <v>365</v>
       </c>
       <c r="B1202" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1202" t="s">
         <v>1676</v>
@@ -31763,7 +31770,7 @@
         <v>366</v>
       </c>
       <c r="B1203" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1203" t="s">
         <v>1676</v>
@@ -31783,7 +31790,7 @@
         <v>367</v>
       </c>
       <c r="B1204" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1204" t="s">
         <v>1676</v>
@@ -31803,7 +31810,7 @@
         <v>368</v>
       </c>
       <c r="B1205" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1205" t="s">
         <v>1676</v>
@@ -31823,7 +31830,7 @@
         <v>369</v>
       </c>
       <c r="B1206" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1206" t="s">
         <v>1676</v>
@@ -31843,7 +31850,7 @@
         <v>370</v>
       </c>
       <c r="B1207" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1207" t="s">
         <v>1676</v>
@@ -31863,7 +31870,7 @@
         <v>371</v>
       </c>
       <c r="B1208" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1208" t="s">
         <v>1676</v>
@@ -31883,7 +31890,7 @@
         <v>372</v>
       </c>
       <c r="B1209" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1209" t="s">
         <v>1676</v>
@@ -31903,7 +31910,7 @@
         <v>373</v>
       </c>
       <c r="B1210" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1210" t="s">
         <v>1676</v>
@@ -31923,7 +31930,7 @@
         <v>374</v>
       </c>
       <c r="B1211" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1211" t="s">
         <v>1676</v>
@@ -31943,7 +31950,7 @@
         <v>375</v>
       </c>
       <c r="B1212" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1212" t="s">
         <v>1676</v>
@@ -31963,7 +31970,7 @@
         <v>376</v>
       </c>
       <c r="B1213" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1213" t="s">
         <v>1676</v>
@@ -31983,7 +31990,7 @@
         <v>377</v>
       </c>
       <c r="B1214" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1214" t="s">
         <v>1676</v>
@@ -32003,7 +32010,7 @@
         <v>378</v>
       </c>
       <c r="B1215" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1215" t="s">
         <v>1676</v>
@@ -32023,7 +32030,7 @@
         <v>379</v>
       </c>
       <c r="B1216" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1216" t="s">
         <v>1676</v>
@@ -32043,7 +32050,7 @@
         <v>380</v>
       </c>
       <c r="B1217" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1217" t="s">
         <v>1676</v>
@@ -32063,7 +32070,7 @@
         <v>381</v>
       </c>
       <c r="B1218" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1218" t="s">
         <v>1676</v>
@@ -32083,7 +32090,7 @@
         <v>382</v>
       </c>
       <c r="B1219" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1219" t="s">
         <v>1676</v>
@@ -32103,7 +32110,7 @@
         <v>383</v>
       </c>
       <c r="B1220" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1220" t="s">
         <v>1676</v>
@@ -32123,7 +32130,7 @@
         <v>384</v>
       </c>
       <c r="B1221" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1221" t="s">
         <v>1676</v>
@@ -32143,7 +32150,7 @@
         <v>385</v>
       </c>
       <c r="B1222" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1222" t="s">
         <v>1676</v>
@@ -32163,7 +32170,7 @@
         <v>386</v>
       </c>
       <c r="B1223" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1223" t="s">
         <v>1676</v>
@@ -32183,7 +32190,7 @@
         <v>387</v>
       </c>
       <c r="B1224" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1224" t="s">
         <v>1676</v>
@@ -32203,7 +32210,7 @@
         <v>388</v>
       </c>
       <c r="B1225" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1225" t="s">
         <v>1676</v>
@@ -32223,7 +32230,7 @@
         <v>389</v>
       </c>
       <c r="B1226" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1226" t="s">
         <v>1676</v>
@@ -32243,7 +32250,7 @@
         <v>390</v>
       </c>
       <c r="B1227" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1227" t="s">
         <v>1676</v>
@@ -32263,7 +32270,7 @@
         <v>391</v>
       </c>
       <c r="B1228" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1228" t="s">
         <v>1676</v>
@@ -32283,7 +32290,7 @@
         <v>392</v>
       </c>
       <c r="B1229" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1229" t="s">
         <v>1676</v>
@@ -32303,7 +32310,7 @@
         <v>393</v>
       </c>
       <c r="B1230" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1230" t="s">
         <v>1676</v>
@@ -32323,7 +32330,7 @@
         <v>394</v>
       </c>
       <c r="B1231" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1231" t="s">
         <v>1676</v>
@@ -32343,7 +32350,7 @@
         <v>395</v>
       </c>
       <c r="B1232" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1232" t="s">
         <v>1676</v>
@@ -32363,7 +32370,7 @@
         <v>396</v>
       </c>
       <c r="B1233" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1233" t="s">
         <v>1676</v>
@@ -32383,7 +32390,7 @@
         <v>397</v>
       </c>
       <c r="B1234" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1234" t="s">
         <v>1676</v>
@@ -32403,7 +32410,7 @@
         <v>398</v>
       </c>
       <c r="B1235" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1235" t="s">
         <v>1676</v>
@@ -32423,7 +32430,7 @@
         <v>399</v>
       </c>
       <c r="B1236" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1236" t="s">
         <v>1676</v>
@@ -32443,7 +32450,7 @@
         <v>400</v>
       </c>
       <c r="B1237" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1237" t="s">
         <v>1676</v>
@@ -32463,7 +32470,7 @@
         <v>401</v>
       </c>
       <c r="B1238" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1238" t="s">
         <v>1676</v>
@@ -32483,7 +32490,7 @@
         <v>402</v>
       </c>
       <c r="B1239" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1239" t="s">
         <v>1676</v>
@@ -32503,7 +32510,7 @@
         <v>403</v>
       </c>
       <c r="B1240" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1240" t="s">
         <v>1676</v>
@@ -32523,7 +32530,7 @@
         <v>404</v>
       </c>
       <c r="B1241" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1241" t="s">
         <v>1676</v>
@@ -32543,7 +32550,7 @@
         <v>405</v>
       </c>
       <c r="B1242" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1242" t="s">
         <v>1676</v>
@@ -32563,7 +32570,7 @@
         <v>406</v>
       </c>
       <c r="B1243" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1243" t="s">
         <v>1676</v>
@@ -32583,7 +32590,7 @@
         <v>407</v>
       </c>
       <c r="B1244" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1244" t="s">
         <v>1676</v>
@@ -32603,7 +32610,7 @@
         <v>408</v>
       </c>
       <c r="B1245" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1245" t="s">
         <v>1676</v>
@@ -32623,7 +32630,7 @@
         <v>409</v>
       </c>
       <c r="B1246" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1246" t="s">
         <v>1676</v>
@@ -32643,7 +32650,7 @@
         <v>410</v>
       </c>
       <c r="B1247" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1247" t="s">
         <v>1676</v>
@@ -32663,7 +32670,7 @@
         <v>411</v>
       </c>
       <c r="B1248" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1248" t="s">
         <v>1676</v>
@@ -32683,7 +32690,7 @@
         <v>412</v>
       </c>
       <c r="B1249" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1249" t="s">
         <v>1676</v>
@@ -32703,7 +32710,7 @@
         <v>413</v>
       </c>
       <c r="B1250" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1250" t="s">
         <v>1676</v>
@@ -32723,7 +32730,7 @@
         <v>414</v>
       </c>
       <c r="B1251" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1251" t="s">
         <v>1676</v>
@@ -32743,7 +32750,7 @@
         <v>415</v>
       </c>
       <c r="B1252" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1252" t="s">
         <v>1676</v>
@@ -32763,7 +32770,7 @@
         <v>416</v>
       </c>
       <c r="B1253" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1253" t="s">
         <v>1676</v>
@@ -32783,7 +32790,7 @@
         <v>417</v>
       </c>
       <c r="B1254" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1254" t="s">
         <v>1676</v>
@@ -32803,7 +32810,7 @@
         <v>418</v>
       </c>
       <c r="B1255" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1255" t="s">
         <v>1676</v>
@@ -32823,7 +32830,7 @@
         <v>419</v>
       </c>
       <c r="B1256" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1256" t="s">
         <v>1676</v>
@@ -32843,7 +32850,7 @@
         <v>420</v>
       </c>
       <c r="B1257" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1257" t="s">
         <v>1676</v>
@@ -32863,7 +32870,7 @@
         <v>421</v>
       </c>
       <c r="B1258" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1258" t="s">
         <v>1676</v>
@@ -32883,7 +32890,7 @@
         <v>422</v>
       </c>
       <c r="B1259" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1259" t="s">
         <v>1676</v>
@@ -32903,7 +32910,7 @@
         <v>423</v>
       </c>
       <c r="B1260" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1260" t="s">
         <v>1676</v>
@@ -32923,7 +32930,7 @@
         <v>424</v>
       </c>
       <c r="B1261" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1261" t="s">
         <v>1676</v>
@@ -32943,7 +32950,7 @@
         <v>425</v>
       </c>
       <c r="B1262" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1262" t="s">
         <v>1676</v>
@@ -32963,7 +32970,7 @@
         <v>426</v>
       </c>
       <c r="B1263" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1263" t="s">
         <v>1676</v>
@@ -32983,7 +32990,7 @@
         <v>427</v>
       </c>
       <c r="B1264" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1264" t="s">
         <v>1676</v>
@@ -33003,7 +33010,7 @@
         <v>428</v>
       </c>
       <c r="B1265" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1265" t="s">
         <v>1676</v>
@@ -33023,7 +33030,7 @@
         <v>429</v>
       </c>
       <c r="B1266" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1266" t="s">
         <v>1676</v>
@@ -33043,7 +33050,7 @@
         <v>430</v>
       </c>
       <c r="B1267" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1267" t="s">
         <v>1676</v>
@@ -33063,7 +33070,7 @@
         <v>431</v>
       </c>
       <c r="B1268" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1268" t="s">
         <v>1676</v>
@@ -33083,7 +33090,7 @@
         <v>432</v>
       </c>
       <c r="B1269" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1269" t="s">
         <v>1676</v>
@@ -33103,7 +33110,7 @@
         <v>433</v>
       </c>
       <c r="B1270" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1270" t="s">
         <v>1676</v>
@@ -33123,7 +33130,7 @@
         <v>434</v>
       </c>
       <c r="B1271" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1271" t="s">
         <v>1676</v>
@@ -33143,7 +33150,7 @@
         <v>435</v>
       </c>
       <c r="B1272" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1272" t="s">
         <v>1676</v>
@@ -33163,7 +33170,7 @@
         <v>436</v>
       </c>
       <c r="B1273" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1273" t="s">
         <v>1676</v>
@@ -33183,7 +33190,7 @@
         <v>437</v>
       </c>
       <c r="B1274" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C1274" t="s">
         <v>1676</v>
@@ -34040,7 +34047,7 @@
     </row>
     <row r="1317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B1317" s="3" t="s">
         <v>2066</v>
@@ -34720,7 +34727,7 @@
     </row>
     <row r="1351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B1351" s="3" t="s">
         <v>2066</v>
@@ -39335,7 +39342,7 @@
         <v>1676</v>
       </c>
       <c r="F1581" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1582" spans="1:6" x14ac:dyDescent="0.2">
@@ -39343,7 +39350,7 @@
         <v>446</v>
       </c>
       <c r="B1582" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1582" t="s">
         <v>1676</v>
@@ -39363,7 +39370,7 @@
         <v>447</v>
       </c>
       <c r="B1583" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1583" t="s">
         <v>1676</v>
@@ -39383,7 +39390,7 @@
         <v>448</v>
       </c>
       <c r="B1584" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1584" t="s">
         <v>1676</v>
@@ -39403,7 +39410,7 @@
         <v>449</v>
       </c>
       <c r="B1585" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1585" t="s">
         <v>1676</v>
@@ -39423,7 +39430,7 @@
         <v>450</v>
       </c>
       <c r="B1586" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1586" t="s">
         <v>1676</v>
@@ -39443,7 +39450,7 @@
         <v>451</v>
       </c>
       <c r="B1587" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1587" t="s">
         <v>1676</v>
@@ -39463,7 +39470,7 @@
         <v>452</v>
       </c>
       <c r="B1588" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1588" t="s">
         <v>1676</v>
@@ -39483,7 +39490,7 @@
         <v>453</v>
       </c>
       <c r="B1589" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1589" t="s">
         <v>1676</v>
@@ -39503,7 +39510,7 @@
         <v>454</v>
       </c>
       <c r="B1590" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1590" t="s">
         <v>1676</v>
@@ -39523,7 +39530,7 @@
         <v>455</v>
       </c>
       <c r="B1591" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1591" t="s">
         <v>1676</v>
@@ -39543,7 +39550,7 @@
         <v>456</v>
       </c>
       <c r="B1592" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1592" t="s">
         <v>1676</v>
@@ -39563,7 +39570,7 @@
         <v>457</v>
       </c>
       <c r="B1593" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1593" t="s">
         <v>1676</v>
@@ -39583,7 +39590,7 @@
         <v>458</v>
       </c>
       <c r="B1594" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1594" t="s">
         <v>1676</v>
@@ -39603,7 +39610,7 @@
         <v>459</v>
       </c>
       <c r="B1595" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1595" t="s">
         <v>1676</v>
@@ -39623,7 +39630,7 @@
         <v>460</v>
       </c>
       <c r="B1596" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1596" t="s">
         <v>1676</v>
@@ -39643,7 +39650,7 @@
         <v>461</v>
       </c>
       <c r="B1597" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1597" t="s">
         <v>1676</v>
@@ -39663,7 +39670,7 @@
         <v>462</v>
       </c>
       <c r="B1598" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1598" t="s">
         <v>1676</v>
@@ -39683,7 +39690,7 @@
         <v>463</v>
       </c>
       <c r="B1599" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1599" t="s">
         <v>1676</v>
@@ -39703,7 +39710,7 @@
         <v>464</v>
       </c>
       <c r="B1600" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1600" t="s">
         <v>1676</v>
@@ -39723,7 +39730,7 @@
         <v>465</v>
       </c>
       <c r="B1601" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1601" t="s">
         <v>1676</v>
@@ -39743,7 +39750,7 @@
         <v>466</v>
       </c>
       <c r="B1602" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1602" t="s">
         <v>1676</v>
@@ -39763,7 +39770,7 @@
         <v>467</v>
       </c>
       <c r="B1603" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1603" t="s">
         <v>1676</v>
@@ -39783,7 +39790,7 @@
         <v>468</v>
       </c>
       <c r="B1604" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1604" t="s">
         <v>1676</v>
@@ -39803,7 +39810,7 @@
         <v>469</v>
       </c>
       <c r="B1605" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1605" t="s">
         <v>1676</v>
@@ -39823,7 +39830,7 @@
         <v>470</v>
       </c>
       <c r="B1606" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1606" t="s">
         <v>1676</v>
@@ -39843,7 +39850,7 @@
         <v>471</v>
       </c>
       <c r="B1607" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1607" t="s">
         <v>1676</v>
@@ -39863,7 +39870,7 @@
         <v>472</v>
       </c>
       <c r="B1608" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1608" t="s">
         <v>1676</v>
@@ -39883,7 +39890,7 @@
         <v>473</v>
       </c>
       <c r="B1609" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1609" t="s">
         <v>1676</v>
@@ -39903,7 +39910,7 @@
         <v>474</v>
       </c>
       <c r="B1610" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1610" t="s">
         <v>1676</v>
@@ -39923,7 +39930,7 @@
         <v>475</v>
       </c>
       <c r="B1611" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1611" t="s">
         <v>1676</v>
@@ -39943,7 +39950,7 @@
         <v>476</v>
       </c>
       <c r="B1612" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1612" t="s">
         <v>1676</v>
@@ -39963,7 +39970,7 @@
         <v>477</v>
       </c>
       <c r="B1613" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1613" t="s">
         <v>1676</v>
@@ -39983,7 +39990,7 @@
         <v>478</v>
       </c>
       <c r="B1614" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1614" t="s">
         <v>1676</v>
@@ -40003,7 +40010,7 @@
         <v>479</v>
       </c>
       <c r="B1615" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1615" t="s">
         <v>1676</v>
@@ -40023,7 +40030,7 @@
         <v>480</v>
       </c>
       <c r="B1616" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1616" t="s">
         <v>1676</v>
@@ -40043,7 +40050,7 @@
         <v>481</v>
       </c>
       <c r="B1617" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1617" t="s">
         <v>1676</v>
@@ -40063,7 +40070,7 @@
         <v>482</v>
       </c>
       <c r="B1618" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1618" t="s">
         <v>1676</v>
@@ -40083,7 +40090,7 @@
         <v>483</v>
       </c>
       <c r="B1619" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1619" t="s">
         <v>1676</v>
@@ -40103,7 +40110,7 @@
         <v>484</v>
       </c>
       <c r="B1620" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1620" t="s">
         <v>1676</v>
@@ -40123,7 +40130,7 @@
         <v>485</v>
       </c>
       <c r="B1621" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1621" t="s">
         <v>1676</v>
@@ -40143,7 +40150,7 @@
         <v>486</v>
       </c>
       <c r="B1622" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1622" t="s">
         <v>1676</v>
@@ -40163,7 +40170,7 @@
         <v>487</v>
       </c>
       <c r="B1623" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1623" t="s">
         <v>1676</v>
@@ -40183,7 +40190,7 @@
         <v>488</v>
       </c>
       <c r="B1624" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1624" t="s">
         <v>1676</v>
@@ -40203,7 +40210,7 @@
         <v>489</v>
       </c>
       <c r="B1625" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1625" t="s">
         <v>1676</v>
@@ -40223,7 +40230,7 @@
         <v>490</v>
       </c>
       <c r="B1626" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1626" t="s">
         <v>1676</v>
@@ -40243,7 +40250,7 @@
         <v>491</v>
       </c>
       <c r="B1627" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1627" t="s">
         <v>1676</v>
@@ -40263,7 +40270,7 @@
         <v>492</v>
       </c>
       <c r="B1628" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1628" t="s">
         <v>1676</v>
@@ -40283,7 +40290,7 @@
         <v>493</v>
       </c>
       <c r="B1629" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1629" t="s">
         <v>1676</v>
@@ -40303,7 +40310,7 @@
         <v>494</v>
       </c>
       <c r="B1630" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1630" t="s">
         <v>1676</v>
@@ -40323,7 +40330,7 @@
         <v>495</v>
       </c>
       <c r="B1631" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1631" t="s">
         <v>1676</v>
@@ -40343,7 +40350,7 @@
         <v>496</v>
       </c>
       <c r="B1632" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1632" t="s">
         <v>1676</v>
@@ -40363,7 +40370,7 @@
         <v>497</v>
       </c>
       <c r="B1633" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1633" t="s">
         <v>1676</v>
@@ -40383,7 +40390,7 @@
         <v>498</v>
       </c>
       <c r="B1634" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1634" t="s">
         <v>1676</v>
@@ -40403,7 +40410,7 @@
         <v>499</v>
       </c>
       <c r="B1635" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1635" t="s">
         <v>1676</v>
@@ -40423,7 +40430,7 @@
         <v>500</v>
       </c>
       <c r="B1636" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1636" t="s">
         <v>1676</v>
@@ -40443,7 +40450,7 @@
         <v>501</v>
       </c>
       <c r="B1637" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1637" t="s">
         <v>1676</v>
@@ -40463,7 +40470,7 @@
         <v>502</v>
       </c>
       <c r="B1638" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1638" t="s">
         <v>1676</v>
@@ -40483,7 +40490,7 @@
         <v>503</v>
       </c>
       <c r="B1639" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1639" t="s">
         <v>1676</v>
@@ -40503,7 +40510,7 @@
         <v>504</v>
       </c>
       <c r="B1640" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1640" t="s">
         <v>1676</v>
@@ -40523,7 +40530,7 @@
         <v>505</v>
       </c>
       <c r="B1641" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1641" t="s">
         <v>1676</v>
@@ -40543,7 +40550,7 @@
         <v>506</v>
       </c>
       <c r="B1642" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1642" t="s">
         <v>1676</v>
@@ -40563,7 +40570,7 @@
         <v>507</v>
       </c>
       <c r="B1643" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1643" t="s">
         <v>1676</v>
@@ -40583,7 +40590,7 @@
         <v>508</v>
       </c>
       <c r="B1644" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1644" t="s">
         <v>1676</v>
@@ -40603,7 +40610,7 @@
         <v>509</v>
       </c>
       <c r="B1645" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1645" t="s">
         <v>1676</v>
@@ -40623,7 +40630,7 @@
         <v>510</v>
       </c>
       <c r="B1646" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1646" t="s">
         <v>1676</v>
@@ -40643,7 +40650,7 @@
         <v>511</v>
       </c>
       <c r="B1647" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1647" t="s">
         <v>1676</v>
@@ -40663,7 +40670,7 @@
         <v>512</v>
       </c>
       <c r="B1648" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1648" t="s">
         <v>1676</v>
@@ -40683,7 +40690,7 @@
         <v>513</v>
       </c>
       <c r="B1649" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1649" t="s">
         <v>1676</v>
@@ -40703,7 +40710,7 @@
         <v>514</v>
       </c>
       <c r="B1650" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1650" t="s">
         <v>1676</v>
@@ -40723,7 +40730,7 @@
         <v>515</v>
       </c>
       <c r="B1651" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1651" t="s">
         <v>1676</v>
@@ -40743,7 +40750,7 @@
         <v>516</v>
       </c>
       <c r="B1652" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1652" t="s">
         <v>1676</v>
@@ -40763,7 +40770,7 @@
         <v>517</v>
       </c>
       <c r="B1653" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1653" t="s">
         <v>1676</v>
@@ -40783,7 +40790,7 @@
         <v>518</v>
       </c>
       <c r="B1654" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1654" t="s">
         <v>1676</v>
@@ -40803,7 +40810,7 @@
         <v>519</v>
       </c>
       <c r="B1655" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1655" t="s">
         <v>1676</v>
@@ -40823,7 +40830,7 @@
         <v>520</v>
       </c>
       <c r="B1656" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1656" t="s">
         <v>1676</v>
@@ -40843,7 +40850,7 @@
         <v>521</v>
       </c>
       <c r="B1657" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1657" t="s">
         <v>1676</v>
@@ -40863,7 +40870,7 @@
         <v>522</v>
       </c>
       <c r="B1658" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1658" t="s">
         <v>1676</v>
@@ -40883,7 +40890,7 @@
         <v>523</v>
       </c>
       <c r="B1659" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1659" t="s">
         <v>1676</v>
@@ -40903,7 +40910,7 @@
         <v>455</v>
       </c>
       <c r="B1660" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1660" t="s">
         <v>1676</v>
@@ -40923,7 +40930,7 @@
         <v>524</v>
       </c>
       <c r="B1661" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1661" t="s">
         <v>1676</v>
@@ -40943,7 +40950,7 @@
         <v>525</v>
       </c>
       <c r="B1662" s="3" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C1662" t="s">
         <v>1676</v>
@@ -43223,7 +43230,7 @@
         <v>526</v>
       </c>
       <c r="B1776" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1776" t="s">
         <v>1676</v>
@@ -43243,7 +43250,7 @@
         <v>527</v>
       </c>
       <c r="B1777" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1777" t="s">
         <v>1676</v>
@@ -43263,7 +43270,7 @@
         <v>528</v>
       </c>
       <c r="B1778" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1778" t="s">
         <v>1676</v>
@@ -43283,7 +43290,7 @@
         <v>529</v>
       </c>
       <c r="B1779" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1779" t="s">
         <v>1676</v>
@@ -43303,7 +43310,7 @@
         <v>530</v>
       </c>
       <c r="B1780" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1780" t="s">
         <v>1676</v>
@@ -43323,7 +43330,7 @@
         <v>531</v>
       </c>
       <c r="B1781" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1781" t="s">
         <v>1676</v>
@@ -43343,7 +43350,7 @@
         <v>532</v>
       </c>
       <c r="B1782" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1782" t="s">
         <v>1676</v>
@@ -43363,7 +43370,7 @@
         <v>533</v>
       </c>
       <c r="B1783" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1783" t="s">
         <v>1676</v>
@@ -43383,7 +43390,7 @@
         <v>534</v>
       </c>
       <c r="B1784" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1784" t="s">
         <v>1676</v>
@@ -43403,7 +43410,7 @@
         <v>535</v>
       </c>
       <c r="B1785" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1785" t="s">
         <v>1676</v>
@@ -43423,7 +43430,7 @@
         <v>536</v>
       </c>
       <c r="B1786" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1786" t="s">
         <v>1676</v>
@@ -43443,7 +43450,7 @@
         <v>537</v>
       </c>
       <c r="B1787" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1787" t="s">
         <v>1676</v>
@@ -43463,7 +43470,7 @@
         <v>538</v>
       </c>
       <c r="B1788" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1788" t="s">
         <v>1676</v>
@@ -43483,7 +43490,7 @@
         <v>539</v>
       </c>
       <c r="B1789" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1789" t="s">
         <v>1676</v>
@@ -43503,7 +43510,7 @@
         <v>540</v>
       </c>
       <c r="B1790" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1790" t="s">
         <v>1676</v>
@@ -43523,7 +43530,7 @@
         <v>541</v>
       </c>
       <c r="B1791" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1791" t="s">
         <v>1676</v>
@@ -43543,7 +43550,7 @@
         <v>542</v>
       </c>
       <c r="B1792" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1792" t="s">
         <v>1676</v>
@@ -43563,7 +43570,7 @@
         <v>543</v>
       </c>
       <c r="B1793" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1793" t="s">
         <v>1676</v>
@@ -43583,7 +43590,7 @@
         <v>544</v>
       </c>
       <c r="B1794" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1794" t="s">
         <v>1676</v>
@@ -43603,7 +43610,7 @@
         <v>545</v>
       </c>
       <c r="B1795" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1795" t="s">
         <v>1676</v>
@@ -43623,7 +43630,7 @@
         <v>546</v>
       </c>
       <c r="B1796" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1796" t="s">
         <v>1676</v>
@@ -43643,7 +43650,7 @@
         <v>547</v>
       </c>
       <c r="B1797" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1797" t="s">
         <v>1676</v>
@@ -43663,7 +43670,7 @@
         <v>548</v>
       </c>
       <c r="B1798" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1798" t="s">
         <v>1676</v>
@@ -43683,7 +43690,7 @@
         <v>549</v>
       </c>
       <c r="B1799" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1799" t="s">
         <v>1676</v>
@@ -43703,7 +43710,7 @@
         <v>550</v>
       </c>
       <c r="B1800" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1800" t="s">
         <v>1676</v>
@@ -43723,7 +43730,7 @@
         <v>551</v>
       </c>
       <c r="B1801" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1801" t="s">
         <v>1676</v>
@@ -43743,7 +43750,7 @@
         <v>552</v>
       </c>
       <c r="B1802" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1802" t="s">
         <v>1676</v>
@@ -43763,7 +43770,7 @@
         <v>553</v>
       </c>
       <c r="B1803" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1803" t="s">
         <v>1676</v>
@@ -43783,7 +43790,7 @@
         <v>554</v>
       </c>
       <c r="B1804" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1804" t="s">
         <v>1676</v>
@@ -43803,7 +43810,7 @@
         <v>555</v>
       </c>
       <c r="B1805" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1805" t="s">
         <v>1676</v>
@@ -43823,7 +43830,7 @@
         <v>556</v>
       </c>
       <c r="B1806" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1806" t="s">
         <v>1676</v>
@@ -43843,7 +43850,7 @@
         <v>557</v>
       </c>
       <c r="B1807" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1807" t="s">
         <v>1676</v>
@@ -43863,7 +43870,7 @@
         <v>558</v>
       </c>
       <c r="B1808" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1808" t="s">
         <v>1676</v>
@@ -43883,7 +43890,7 @@
         <v>559</v>
       </c>
       <c r="B1809" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1809" t="s">
         <v>1676</v>
@@ -43903,7 +43910,7 @@
         <v>560</v>
       </c>
       <c r="B1810" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1810" t="s">
         <v>1676</v>
@@ -43923,7 +43930,7 @@
         <v>561</v>
       </c>
       <c r="B1811" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1811" t="s">
         <v>1676</v>
@@ -43943,7 +43950,7 @@
         <v>562</v>
       </c>
       <c r="B1812" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1812" t="s">
         <v>1676</v>
@@ -43963,7 +43970,7 @@
         <v>563</v>
       </c>
       <c r="B1813" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1813" t="s">
         <v>1676</v>
@@ -43983,7 +43990,7 @@
         <v>564</v>
       </c>
       <c r="B1814" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1814" t="s">
         <v>1676</v>
@@ -44003,7 +44010,7 @@
         <v>565</v>
       </c>
       <c r="B1815" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1815" t="s">
         <v>1676</v>
@@ -44023,7 +44030,7 @@
         <v>566</v>
       </c>
       <c r="B1816" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1816" t="s">
         <v>1676</v>
@@ -44043,7 +44050,7 @@
         <v>567</v>
       </c>
       <c r="B1817" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1817" t="s">
         <v>1676</v>
@@ -44063,7 +44070,7 @@
         <v>568</v>
       </c>
       <c r="B1818" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1818" t="s">
         <v>1676</v>
@@ -44083,7 +44090,7 @@
         <v>569</v>
       </c>
       <c r="B1819" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C1819" t="s">
         <v>1676</v>
@@ -44483,7 +44490,7 @@
         <v>1054</v>
       </c>
       <c r="B1839" t="s">
-        <v>2343</v>
+        <v>2388</v>
       </c>
       <c r="C1839" t="s">
         <v>1676</v>
@@ -44555,7 +44562,7 @@
         <v>1676</v>
       </c>
       <c r="F1842" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1843" spans="1:6" x14ac:dyDescent="0.2">
@@ -45575,7 +45582,7 @@
         <v>1676</v>
       </c>
       <c r="F1893" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1894" spans="1:6" x14ac:dyDescent="0.2">
@@ -46155,7 +46162,7 @@
         <v>1676</v>
       </c>
       <c r="F1922" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1923" spans="1:6" x14ac:dyDescent="0.2">
@@ -47079,7 +47086,7 @@
       </c>
     </row>
     <row r="1969" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1969" t="s">
+      <c r="A1969" s="3" t="s">
         <v>1158</v>
       </c>
       <c r="B1969" t="s">
@@ -47095,7 +47102,7 @@
         <v>1676</v>
       </c>
       <c r="F1969" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1970" spans="1:6" x14ac:dyDescent="0.2">
@@ -47255,7 +47262,7 @@
         <v>1676</v>
       </c>
       <c r="F1977" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1978" spans="1:6" x14ac:dyDescent="0.2">
@@ -47275,7 +47282,7 @@
         <v>1676</v>
       </c>
       <c r="F1978" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1979" spans="1:6" x14ac:dyDescent="0.2">
@@ -47295,7 +47302,7 @@
         <v>1676</v>
       </c>
       <c r="F1979" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1980" spans="1:6" x14ac:dyDescent="0.2">
@@ -47335,7 +47342,7 @@
         <v>1676</v>
       </c>
       <c r="F1981" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1982" spans="1:6" x14ac:dyDescent="0.2">
@@ -47435,7 +47442,7 @@
         <v>1676</v>
       </c>
       <c r="F1986" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1987" spans="1:6" x14ac:dyDescent="0.2">
@@ -48671,5 +48678,6 @@
     <sortCondition ref="B2:B1046539"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>